--- a/data/raw/election/voters-age-sex-education/2023/Diyarbakır.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Diyarbakır.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-voters-age-sex-education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\PycharmProjects\Git Folder\tartan-analytics\data\raw\election\voters-age-sex-education\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="46">
   <si>
     <t>Diyarbakır</t>
   </si>
@@ -151,6 +152,12 @@
   </si>
   <si>
     <t>Yenişehir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -684,7 +691,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -698,11 +705,20 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1032,10 +1048,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N446"/>
+  <dimension ref="A1:N448"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K309" sqref="K309"/>
+    <sheetView tabSelected="1" topLeftCell="A429" workbookViewId="0">
+      <selection activeCell="K292" sqref="K292:K316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,52 +1066,52 @@
     <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1149,14 +1165,14 @@
       <c r="F6" s="4">
         <v>28</v>
       </c>
-      <c r="G6" s="4">
-        <v>8.9600000000000009</v>
-      </c>
-      <c r="H6" s="4">
-        <v>12.706</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1.8009999999999999</v>
+      <c r="G6" s="5">
+        <v>8960</v>
+      </c>
+      <c r="H6" s="5">
+        <v>12706</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1801</v>
       </c>
       <c r="J6" s="4">
         <v>17</v>
@@ -1167,8 +1183,8 @@
       <c r="L6" s="4">
         <v>221</v>
       </c>
-      <c r="M6" s="5">
-        <v>24.247</v>
+      <c r="M6" s="6">
+        <v>24247</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1188,14 +1204,14 @@
       <c r="F7" s="4">
         <v>22</v>
       </c>
-      <c r="G7" s="4">
-        <v>8.2940000000000005</v>
-      </c>
-      <c r="H7" s="4">
-        <v>12.897</v>
-      </c>
-      <c r="I7" s="4">
-        <v>2.508</v>
+      <c r="G7" s="5">
+        <v>8294</v>
+      </c>
+      <c r="H7" s="5">
+        <v>12897</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2508</v>
       </c>
       <c r="J7" s="4">
         <v>20</v>
@@ -1206,8 +1222,8 @@
       <c r="L7" s="4">
         <v>41</v>
       </c>
-      <c r="M7" s="5">
-        <v>24.664000000000001</v>
+      <c r="M7" s="6">
+        <v>24664</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1229,14 +1245,14 @@
       <c r="F8" s="4">
         <v>457</v>
       </c>
-      <c r="G8" s="4">
-        <v>5.7110000000000003</v>
-      </c>
-      <c r="H8" s="4">
-        <v>5.7590000000000003</v>
-      </c>
-      <c r="I8" s="4">
-        <v>4.7610000000000001</v>
+      <c r="G8" s="5">
+        <v>5711</v>
+      </c>
+      <c r="H8" s="5">
+        <v>5759</v>
+      </c>
+      <c r="I8" s="5">
+        <v>4761</v>
       </c>
       <c r="J8" s="4">
         <v>302</v>
@@ -1247,8 +1263,8 @@
       <c r="L8" s="4">
         <v>71</v>
       </c>
-      <c r="M8" s="5">
-        <v>17.809999999999999</v>
+      <c r="M8" s="6">
+        <v>17810</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1259,23 +1275,23 @@
       <c r="C9" s="4">
         <v>326</v>
       </c>
-      <c r="D9" s="4">
-        <v>1.248</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1.472</v>
+      <c r="D9" s="5">
+        <v>1248</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1472</v>
       </c>
       <c r="F9" s="4">
         <v>640</v>
       </c>
-      <c r="G9" s="4">
-        <v>4.8220000000000001</v>
-      </c>
-      <c r="H9" s="4">
-        <v>4.3460000000000001</v>
-      </c>
-      <c r="I9" s="4">
-        <v>5.7619999999999996</v>
+      <c r="G9" s="5">
+        <v>4822</v>
+      </c>
+      <c r="H9" s="5">
+        <v>4346</v>
+      </c>
+      <c r="I9" s="5">
+        <v>5762</v>
       </c>
       <c r="J9" s="4">
         <v>319</v>
@@ -1286,8 +1302,8 @@
       <c r="L9" s="4">
         <v>46</v>
       </c>
-      <c r="M9" s="5">
-        <v>18.981000000000002</v>
+      <c r="M9" s="6">
+        <v>18981</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1306,17 +1322,17 @@
       <c r="E10" s="4">
         <v>450</v>
       </c>
-      <c r="F10" s="4">
-        <v>2.758</v>
-      </c>
-      <c r="G10" s="4">
-        <v>2.7090000000000001</v>
-      </c>
-      <c r="H10" s="4">
-        <v>5.4349999999999996</v>
-      </c>
-      <c r="I10" s="4">
-        <v>6.1020000000000003</v>
+      <c r="F10" s="5">
+        <v>2758</v>
+      </c>
+      <c r="G10" s="5">
+        <v>2709</v>
+      </c>
+      <c r="H10" s="5">
+        <v>5435</v>
+      </c>
+      <c r="I10" s="5">
+        <v>6102</v>
       </c>
       <c r="J10" s="4">
         <v>710</v>
@@ -1327,8 +1343,8 @@
       <c r="L10" s="4">
         <v>43</v>
       </c>
-      <c r="M10" s="5">
-        <v>18.884</v>
+      <c r="M10" s="6">
+        <v>18884</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1339,23 +1355,23 @@
       <c r="C11" s="4">
         <v>865</v>
       </c>
-      <c r="D11" s="4">
-        <v>2.504</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1.0329999999999999</v>
-      </c>
-      <c r="F11" s="4">
-        <v>2.6859999999999999</v>
-      </c>
-      <c r="G11" s="4">
-        <v>2.1349999999999998</v>
-      </c>
-      <c r="H11" s="4">
-        <v>3.6259999999999999</v>
-      </c>
-      <c r="I11" s="4">
-        <v>4.9610000000000003</v>
+      <c r="D11" s="5">
+        <v>2504</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1033</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2686</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2135</v>
+      </c>
+      <c r="H11" s="5">
+        <v>3626</v>
+      </c>
+      <c r="I11" s="5">
+        <v>4961</v>
       </c>
       <c r="J11" s="4">
         <v>465</v>
@@ -1366,8 +1382,8 @@
       <c r="L11" s="4">
         <v>57</v>
       </c>
-      <c r="M11" s="5">
-        <v>18.341999999999999</v>
+      <c r="M11" s="6">
+        <v>18342</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1383,20 +1399,20 @@
       <c r="D12" s="4">
         <v>540</v>
       </c>
-      <c r="E12" s="4">
-        <v>1.228</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2.7130000000000001</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1.4790000000000001</v>
-      </c>
-      <c r="H12" s="4">
-        <v>5.0250000000000004</v>
-      </c>
-      <c r="I12" s="4">
-        <v>3.6659999999999999</v>
+      <c r="E12" s="5">
+        <v>1228</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2713</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1479</v>
+      </c>
+      <c r="H12" s="5">
+        <v>5025</v>
+      </c>
+      <c r="I12" s="5">
+        <v>3666</v>
       </c>
       <c r="J12" s="4">
         <v>583</v>
@@ -1407,8 +1423,8 @@
       <c r="L12" s="4">
         <v>45</v>
       </c>
-      <c r="M12" s="5">
-        <v>15.417999999999999</v>
+      <c r="M12" s="6">
+        <v>15418</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1416,26 +1432,26 @@
       <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="4">
-        <v>1.054</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1.9670000000000001</v>
-      </c>
-      <c r="E13" s="4">
-        <v>2.464</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1.641</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1.498</v>
-      </c>
-      <c r="H13" s="4">
-        <v>3.2490000000000001</v>
-      </c>
-      <c r="I13" s="4">
-        <v>2.3740000000000001</v>
+      <c r="C13" s="5">
+        <v>1054</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1967</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2464</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1641</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1498</v>
+      </c>
+      <c r="H13" s="5">
+        <v>3249</v>
+      </c>
+      <c r="I13" s="5">
+        <v>2374</v>
       </c>
       <c r="J13" s="4">
         <v>283</v>
@@ -1446,8 +1462,8 @@
       <c r="L13" s="4">
         <v>28</v>
       </c>
-      <c r="M13" s="5">
-        <v>14.571999999999999</v>
+      <c r="M13" s="6">
+        <v>14572</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1463,20 +1479,20 @@
       <c r="D14" s="4">
         <v>366</v>
       </c>
-      <c r="E14" s="4">
-        <v>1.986</v>
-      </c>
-      <c r="F14" s="4">
-        <v>2.3359999999999999</v>
-      </c>
-      <c r="G14" s="4">
-        <v>2.3620000000000001</v>
-      </c>
-      <c r="H14" s="4">
-        <v>4.3150000000000004</v>
-      </c>
-      <c r="I14" s="4">
-        <v>1.9750000000000001</v>
+      <c r="E14" s="5">
+        <v>1986</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2336</v>
+      </c>
+      <c r="G14" s="5">
+        <v>2362</v>
+      </c>
+      <c r="H14" s="5">
+        <v>4315</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1975</v>
       </c>
       <c r="J14" s="4">
         <v>420</v>
@@ -1487,8 +1503,8 @@
       <c r="L14" s="4">
         <v>45</v>
       </c>
-      <c r="M14" s="5">
-        <v>13.956</v>
+      <c r="M14" s="6">
+        <v>13956</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1496,26 +1512,26 @@
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="4">
-        <v>1.2050000000000001</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1.8620000000000001</v>
-      </c>
-      <c r="E15" s="4">
-        <v>3.3780000000000001</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1.026</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1.9710000000000001</v>
-      </c>
-      <c r="H15" s="4">
-        <v>2.52</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1.2290000000000001</v>
+      <c r="C15" s="5">
+        <v>1205</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1862</v>
+      </c>
+      <c r="E15" s="5">
+        <v>3378</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1026</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1971</v>
+      </c>
+      <c r="H15" s="5">
+        <v>2520</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1229</v>
       </c>
       <c r="J15" s="4">
         <v>144</v>
@@ -1526,8 +1542,8 @@
       <c r="L15" s="4">
         <v>52</v>
       </c>
-      <c r="M15" s="5">
-        <v>13.401</v>
+      <c r="M15" s="6">
+        <v>13401</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1543,20 +1559,20 @@
       <c r="D16" s="4">
         <v>299</v>
       </c>
-      <c r="E16" s="4">
-        <v>1.673</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1.722</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1.8169999999999999</v>
-      </c>
-      <c r="H16" s="4">
-        <v>3.0950000000000002</v>
-      </c>
-      <c r="I16" s="4">
-        <v>1.1419999999999999</v>
+      <c r="E16" s="5">
+        <v>1673</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1722</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1817</v>
+      </c>
+      <c r="H16" s="5">
+        <v>3095</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1142</v>
       </c>
       <c r="J16" s="4">
         <v>166</v>
@@ -1567,8 +1583,8 @@
       <c r="L16" s="4">
         <v>60</v>
       </c>
-      <c r="M16" s="5">
-        <v>10.106</v>
+      <c r="M16" s="6">
+        <v>10106</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1576,23 +1592,23 @@
       <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="4">
-        <v>1.1120000000000001</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1.5669999999999999</v>
-      </c>
-      <c r="E17" s="4">
-        <v>2.7650000000000001</v>
+      <c r="C17" s="5">
+        <v>1112</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1567</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2765</v>
       </c>
       <c r="F17" s="4">
         <v>820</v>
       </c>
-      <c r="G17" s="4">
-        <v>1.44</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1.8220000000000001</v>
+      <c r="G17" s="5">
+        <v>1440</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1822</v>
       </c>
       <c r="I17" s="4">
         <v>536</v>
@@ -1606,8 +1622,8 @@
       <c r="L17" s="4">
         <v>47</v>
       </c>
-      <c r="M17" s="5">
-        <v>10.18</v>
+      <c r="M17" s="6">
+        <v>10180</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1623,17 +1639,17 @@
       <c r="D18" s="4">
         <v>248</v>
       </c>
-      <c r="E18" s="4">
-        <v>1.4730000000000001</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1.585</v>
-      </c>
-      <c r="G18" s="4">
-        <v>1.5640000000000001</v>
-      </c>
-      <c r="H18" s="4">
-        <v>2.242</v>
+      <c r="E18" s="5">
+        <v>1473</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1585</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1564</v>
+      </c>
+      <c r="H18" s="5">
+        <v>2242</v>
       </c>
       <c r="I18" s="4">
         <v>739</v>
@@ -1647,8 +1663,8 @@
       <c r="L18" s="4">
         <v>34</v>
       </c>
-      <c r="M18" s="5">
-        <v>8.0860000000000003</v>
+      <c r="M18" s="6">
+        <v>8086</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1656,14 +1672,14 @@
       <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="4">
-        <v>1.284</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1.468</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1.9450000000000001</v>
+      <c r="C19" s="5">
+        <v>1284</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1468</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1945</v>
       </c>
       <c r="F19" s="4">
         <v>558</v>
@@ -1671,8 +1687,8 @@
       <c r="G19" s="4">
         <v>971</v>
       </c>
-      <c r="H19" s="4">
-        <v>1.1990000000000001</v>
+      <c r="H19" s="5">
+        <v>1199</v>
       </c>
       <c r="I19" s="4">
         <v>239</v>
@@ -1686,8 +1702,8 @@
       <c r="L19" s="4">
         <v>41</v>
       </c>
-      <c r="M19" s="5">
-        <v>7.734</v>
+      <c r="M19" s="6">
+        <v>7734</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1703,17 +1719,17 @@
       <c r="D20" s="4">
         <v>270</v>
       </c>
-      <c r="E20" s="4">
-        <v>1.421</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1.163</v>
-      </c>
-      <c r="G20" s="4">
-        <v>1.137</v>
-      </c>
-      <c r="H20" s="4">
-        <v>1.6479999999999999</v>
+      <c r="E20" s="5">
+        <v>1421</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1163</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1137</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1648</v>
       </c>
       <c r="I20" s="4">
         <v>429</v>
@@ -1727,8 +1743,8 @@
       <c r="L20" s="4">
         <v>36</v>
       </c>
-      <c r="M20" s="5">
-        <v>6.2679999999999998</v>
+      <c r="M20" s="6">
+        <v>6268</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1736,14 +1752,14 @@
       <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="4">
-        <v>1.5620000000000001</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1.3009999999999999</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1.494</v>
+      <c r="C21" s="5">
+        <v>1562</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1301</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1494</v>
       </c>
       <c r="F21" s="4">
         <v>332</v>
@@ -1766,8 +1782,8 @@
       <c r="L21" s="4">
         <v>51</v>
       </c>
-      <c r="M21" s="5">
-        <v>6.2460000000000004</v>
+      <c r="M21" s="6">
+        <v>6246</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1783,8 +1799,8 @@
       <c r="D22" s="4">
         <v>229</v>
       </c>
-      <c r="E22" s="4">
-        <v>1.083</v>
+      <c r="E22" s="5">
+        <v>1083</v>
       </c>
       <c r="F22" s="4">
         <v>621</v>
@@ -1792,8 +1808,8 @@
       <c r="G22" s="4">
         <v>708</v>
       </c>
-      <c r="H22" s="4">
-        <v>1.159</v>
+      <c r="H22" s="5">
+        <v>1159</v>
       </c>
       <c r="I22" s="4">
         <v>295</v>
@@ -1807,8 +1823,8 @@
       <c r="L22" s="4">
         <v>30</v>
       </c>
-      <c r="M22" s="5">
-        <v>4.2850000000000001</v>
+      <c r="M22" s="6">
+        <v>4285</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1816,14 +1832,14 @@
       <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="4">
-        <v>1.51</v>
+      <c r="C23" s="5">
+        <v>1510</v>
       </c>
       <c r="D23" s="4">
         <v>932</v>
       </c>
-      <c r="E23" s="4">
-        <v>1.0580000000000001</v>
+      <c r="E23" s="5">
+        <v>1058</v>
       </c>
       <c r="F23" s="4">
         <v>157</v>
@@ -1846,8 +1862,8 @@
       <c r="L23" s="4">
         <v>32</v>
       </c>
-      <c r="M23" s="5">
-        <v>4.5010000000000003</v>
+      <c r="M23" s="6">
+        <v>4501</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1887,8 +1903,8 @@
       <c r="L24" s="4">
         <v>18</v>
       </c>
-      <c r="M24" s="5">
-        <v>2.9169999999999998</v>
+      <c r="M24" s="6">
+        <v>2917</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1896,8 +1912,8 @@
       <c r="B25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="4">
-        <v>1.56</v>
+      <c r="C25" s="5">
+        <v>1560</v>
       </c>
       <c r="D25" s="4">
         <v>646</v>
@@ -1926,8 +1942,8 @@
       <c r="L25" s="4">
         <v>30</v>
       </c>
-      <c r="M25" s="5">
-        <v>3.2650000000000001</v>
+      <c r="M25" s="6">
+        <v>3265</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1967,8 +1983,8 @@
       <c r="L26" s="4">
         <v>17</v>
       </c>
-      <c r="M26" s="5">
-        <v>2.0049999999999999</v>
+      <c r="M26" s="6">
+        <v>2005</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1976,8 +1992,8 @@
       <c r="B27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="4">
-        <v>1.641</v>
+      <c r="C27" s="5">
+        <v>1641</v>
       </c>
       <c r="D27" s="4">
         <v>466</v>
@@ -2006,8 +2022,8 @@
       <c r="L27" s="4">
         <v>26</v>
       </c>
-      <c r="M27" s="5">
-        <v>2.706</v>
+      <c r="M27" s="6">
+        <v>2706</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2047,8 +2063,8 @@
       <c r="L28" s="4">
         <v>16</v>
       </c>
-      <c r="M28" s="5">
-        <v>2.1579999999999999</v>
+      <c r="M28" s="6">
+        <v>2158</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2056,8 +2072,8 @@
       <c r="B29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="4">
-        <v>2.7719999999999998</v>
+      <c r="C29" s="5">
+        <v>2772</v>
       </c>
       <c r="D29" s="4">
         <v>444</v>
@@ -2086,54 +2102,54 @@
       <c r="L29" s="4">
         <v>56</v>
       </c>
-      <c r="M29" s="5">
-        <v>3.653</v>
+      <c r="M29" s="6">
+        <v>3653</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
-        <v>16.710999999999999</v>
-      </c>
-      <c r="D30" s="5">
-        <v>18.992999999999999</v>
-      </c>
-      <c r="E30" s="5">
-        <v>29.57</v>
-      </c>
-      <c r="F30" s="5">
-        <v>21.797000000000001</v>
-      </c>
-      <c r="G30" s="5">
-        <v>49.561</v>
-      </c>
-      <c r="H30" s="5">
-        <v>73.605999999999995</v>
-      </c>
-      <c r="I30" s="5">
-        <v>39.085000000000001</v>
-      </c>
-      <c r="J30" s="5">
-        <v>3.6760000000000002</v>
-      </c>
-      <c r="K30" s="5">
+      <c r="B30" s="7"/>
+      <c r="C30" s="6">
+        <v>16711</v>
+      </c>
+      <c r="D30" s="6">
+        <v>18993</v>
+      </c>
+      <c r="E30" s="6">
+        <v>29570</v>
+      </c>
+      <c r="F30" s="6">
+        <v>21797</v>
+      </c>
+      <c r="G30" s="6">
+        <v>49561</v>
+      </c>
+      <c r="H30" s="6">
+        <v>73606</v>
+      </c>
+      <c r="I30" s="6">
+        <v>39085</v>
+      </c>
+      <c r="J30" s="6">
+        <v>3676</v>
+      </c>
+      <c r="K30" s="8">
         <v>243</v>
       </c>
-      <c r="L30" s="5">
-        <v>1.143</v>
-      </c>
-      <c r="M30" s="5">
-        <v>254.38499999999999</v>
+      <c r="L30" s="6">
+        <v>1143</v>
+      </c>
+      <c r="M30" s="6">
+        <v>254385</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2187,11 +2203,11 @@
       <c r="F32" s="4">
         <v>3</v>
       </c>
-      <c r="G32" s="4">
-        <v>3.5350000000000001</v>
-      </c>
-      <c r="H32" s="4">
-        <v>4.1390000000000002</v>
+      <c r="G32" s="5">
+        <v>3535</v>
+      </c>
+      <c r="H32" s="5">
+        <v>4139</v>
       </c>
       <c r="I32" s="4">
         <v>397</v>
@@ -2205,8 +2221,8 @@
       <c r="L32" s="4">
         <v>70</v>
       </c>
-      <c r="M32" s="5">
-        <v>8.35</v>
+      <c r="M32" s="6">
+        <v>8350</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2226,11 +2242,11 @@
       <c r="F33" s="4">
         <v>6</v>
       </c>
-      <c r="G33" s="4">
-        <v>3.319</v>
-      </c>
-      <c r="H33" s="4">
-        <v>4.1159999999999997</v>
+      <c r="G33" s="5">
+        <v>3319</v>
+      </c>
+      <c r="H33" s="5">
+        <v>4116</v>
       </c>
       <c r="I33" s="4">
         <v>627</v>
@@ -2244,8 +2260,8 @@
       <c r="L33" s="4">
         <v>7</v>
       </c>
-      <c r="M33" s="5">
-        <v>8.4109999999999996</v>
+      <c r="M33" s="6">
+        <v>8411</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2267,14 +2283,14 @@
       <c r="F34" s="4">
         <v>112</v>
       </c>
-      <c r="G34" s="4">
-        <v>1.6970000000000001</v>
-      </c>
-      <c r="H34" s="4">
-        <v>1.8580000000000001</v>
-      </c>
-      <c r="I34" s="4">
-        <v>1.238</v>
+      <c r="G34" s="5">
+        <v>1697</v>
+      </c>
+      <c r="H34" s="5">
+        <v>1858</v>
+      </c>
+      <c r="I34" s="5">
+        <v>1238</v>
       </c>
       <c r="J34" s="4">
         <v>66</v>
@@ -2285,8 +2301,8 @@
       <c r="L34" s="4">
         <v>14</v>
       </c>
-      <c r="M34" s="5">
-        <v>5.2569999999999997</v>
+      <c r="M34" s="6">
+        <v>5257</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2306,14 +2322,14 @@
       <c r="F35" s="4">
         <v>240</v>
       </c>
-      <c r="G35" s="4">
-        <v>1.5069999999999999</v>
-      </c>
-      <c r="H35" s="4">
-        <v>1.079</v>
-      </c>
-      <c r="I35" s="4">
-        <v>1.3620000000000001</v>
+      <c r="G35" s="5">
+        <v>1507</v>
+      </c>
+      <c r="H35" s="5">
+        <v>1079</v>
+      </c>
+      <c r="I35" s="5">
+        <v>1362</v>
       </c>
       <c r="J35" s="4">
         <v>76</v>
@@ -2324,8 +2340,8 @@
       <c r="L35" s="4">
         <v>14</v>
       </c>
-      <c r="M35" s="5">
-        <v>5.0970000000000004</v>
+      <c r="M35" s="6">
+        <v>5097</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2350,11 +2366,11 @@
       <c r="G36" s="4">
         <v>659</v>
       </c>
-      <c r="H36" s="4">
-        <v>1.5980000000000001</v>
-      </c>
-      <c r="I36" s="4">
-        <v>1.216</v>
+      <c r="H36" s="5">
+        <v>1598</v>
+      </c>
+      <c r="I36" s="5">
+        <v>1216</v>
       </c>
       <c r="J36" s="4">
         <v>160</v>
@@ -2365,8 +2381,8 @@
       <c r="L36" s="4">
         <v>10</v>
       </c>
-      <c r="M36" s="5">
-        <v>4.726</v>
+      <c r="M36" s="6">
+        <v>4726</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2404,8 +2420,8 @@
       <c r="L37" s="4">
         <v>23</v>
       </c>
-      <c r="M37" s="5">
-        <v>4.3849999999999998</v>
+      <c r="M37" s="6">
+        <v>4385</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2430,8 +2446,8 @@
       <c r="G38" s="4">
         <v>330</v>
       </c>
-      <c r="H38" s="4">
-        <v>1.2709999999999999</v>
+      <c r="H38" s="5">
+        <v>1271</v>
       </c>
       <c r="I38" s="4">
         <v>685</v>
@@ -2445,8 +2461,8 @@
       <c r="L38" s="4">
         <v>14</v>
       </c>
-      <c r="M38" s="5">
-        <v>3.72</v>
+      <c r="M38" s="6">
+        <v>3720</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2484,8 +2500,8 @@
       <c r="L39" s="4">
         <v>19</v>
       </c>
-      <c r="M39" s="5">
-        <v>3.581</v>
+      <c r="M39" s="6">
+        <v>3581</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2510,8 +2526,8 @@
       <c r="G40" s="4">
         <v>570</v>
       </c>
-      <c r="H40" s="4">
-        <v>1.123</v>
+      <c r="H40" s="5">
+        <v>1123</v>
       </c>
       <c r="I40" s="4">
         <v>340</v>
@@ -2525,8 +2541,8 @@
       <c r="L40" s="4">
         <v>18</v>
       </c>
-      <c r="M40" s="5">
-        <v>3.6850000000000001</v>
+      <c r="M40" s="6">
+        <v>3685</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2540,8 +2556,8 @@
       <c r="D41" s="4">
         <v>849</v>
       </c>
-      <c r="E41" s="4">
-        <v>1.1830000000000001</v>
+      <c r="E41" s="5">
+        <v>1183</v>
       </c>
       <c r="F41" s="4">
         <v>235</v>
@@ -2564,8 +2580,8 @@
       <c r="L41" s="4">
         <v>18</v>
       </c>
-      <c r="M41" s="5">
-        <v>3.7010000000000001</v>
+      <c r="M41" s="6">
+        <v>3701</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2605,8 +2621,8 @@
       <c r="L42" s="4">
         <v>16</v>
       </c>
-      <c r="M42" s="5">
-        <v>2.7610000000000001</v>
+      <c r="M42" s="6">
+        <v>2761</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2644,8 +2660,8 @@
       <c r="L43" s="4">
         <v>10</v>
       </c>
-      <c r="M43" s="5">
-        <v>2.7679999999999998</v>
+      <c r="M43" s="6">
+        <v>2768</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2685,8 +2701,8 @@
       <c r="L44" s="4">
         <v>16</v>
       </c>
-      <c r="M44" s="5">
-        <v>2.347</v>
+      <c r="M44" s="6">
+        <v>2347</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2724,8 +2740,8 @@
       <c r="L45" s="4">
         <v>10</v>
       </c>
-      <c r="M45" s="5">
-        <v>2.2349999999999999</v>
+      <c r="M45" s="6">
+        <v>2235</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2765,8 +2781,8 @@
       <c r="L46" s="4">
         <v>13</v>
       </c>
-      <c r="M46" s="5">
-        <v>2.0590000000000002</v>
+      <c r="M46" s="6">
+        <v>2059</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2804,8 +2820,8 @@
       <c r="L47" s="4">
         <v>7</v>
       </c>
-      <c r="M47" s="5">
-        <v>2.016</v>
+      <c r="M47" s="6">
+        <v>2016</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2845,8 +2861,8 @@
       <c r="L48" s="4">
         <v>4</v>
       </c>
-      <c r="M48" s="5">
-        <v>1.4359999999999999</v>
+      <c r="M48" s="6">
+        <v>1436</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2884,8 +2900,8 @@
       <c r="L49" s="4">
         <v>7</v>
       </c>
-      <c r="M49" s="5">
-        <v>1.4470000000000001</v>
+      <c r="M49" s="6">
+        <v>1447</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2925,8 +2941,8 @@
       <c r="L50" s="4">
         <v>9</v>
       </c>
-      <c r="M50" s="5">
-        <v>1.0640000000000001</v>
+      <c r="M50" s="6">
+        <v>1064</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2964,8 +2980,8 @@
       <c r="L51" s="4">
         <v>7</v>
       </c>
-      <c r="M51" s="5">
-        <v>1.1180000000000001</v>
+      <c r="M51" s="6">
+        <v>1118</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -3005,7 +3021,7 @@
       <c r="L52" s="4">
         <v>5</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="8">
         <v>753</v>
       </c>
     </row>
@@ -3044,7 +3060,7 @@
       <c r="L53" s="4">
         <v>6</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="8">
         <v>987</v>
       </c>
     </row>
@@ -3085,7 +3101,7 @@
       <c r="L54" s="4">
         <v>7</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="8">
         <v>774</v>
       </c>
     </row>
@@ -3094,8 +3110,8 @@
       <c r="B55" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="4">
-        <v>1.0429999999999999</v>
+      <c r="C55" s="5">
+        <v>1043</v>
       </c>
       <c r="D55" s="4">
         <v>269</v>
@@ -3124,54 +3140,54 @@
       <c r="L55" s="4">
         <v>25</v>
       </c>
-      <c r="M55" s="5">
-        <v>1.4319999999999999</v>
+      <c r="M55" s="6">
+        <v>1432</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
-        <v>5.524</v>
-      </c>
-      <c r="D56" s="5">
-        <v>8.1809999999999992</v>
-      </c>
-      <c r="E56" s="5">
-        <v>11.173999999999999</v>
-      </c>
-      <c r="F56" s="5">
-        <v>5.3840000000000003</v>
-      </c>
-      <c r="G56" s="5">
-        <v>14.606</v>
-      </c>
-      <c r="H56" s="5">
-        <v>20.331</v>
-      </c>
-      <c r="I56" s="5">
-        <v>7.8369999999999997</v>
-      </c>
-      <c r="J56" s="5">
+      <c r="B56" s="7"/>
+      <c r="C56" s="6">
+        <v>5524</v>
+      </c>
+      <c r="D56" s="6">
+        <v>8181</v>
+      </c>
+      <c r="E56" s="6">
+        <v>11174</v>
+      </c>
+      <c r="F56" s="6">
+        <v>5384</v>
+      </c>
+      <c r="G56" s="6">
+        <v>14606</v>
+      </c>
+      <c r="H56" s="6">
+        <v>20331</v>
+      </c>
+      <c r="I56" s="6">
+        <v>7837</v>
+      </c>
+      <c r="J56" s="8">
         <v>704</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="8">
         <v>20</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="8">
         <v>349</v>
       </c>
-      <c r="M56" s="5">
-        <v>74.11</v>
+      <c r="M56" s="6">
+        <v>74110</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3225,11 +3241,11 @@
       <c r="F58" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="4">
-        <v>1.6140000000000001</v>
-      </c>
-      <c r="H58" s="4">
-        <v>1.472</v>
+      <c r="G58" s="5">
+        <v>1614</v>
+      </c>
+      <c r="H58" s="5">
+        <v>1472</v>
       </c>
       <c r="I58" s="4">
         <v>212</v>
@@ -3243,8 +3259,8 @@
       <c r="L58" s="4">
         <v>27</v>
       </c>
-      <c r="M58" s="5">
-        <v>3.3740000000000001</v>
+      <c r="M58" s="6">
+        <v>3374</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3264,11 +3280,11 @@
       <c r="F59" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="4">
-        <v>1.1890000000000001</v>
-      </c>
-      <c r="H59" s="4">
-        <v>1.752</v>
+      <c r="G59" s="5">
+        <v>1189</v>
+      </c>
+      <c r="H59" s="5">
+        <v>1752</v>
       </c>
       <c r="I59" s="4">
         <v>393</v>
@@ -3282,8 +3298,8 @@
       <c r="L59" s="4">
         <v>2</v>
       </c>
-      <c r="M59" s="5">
-        <v>3.4119999999999999</v>
+      <c r="M59" s="6">
+        <v>3412</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3323,8 +3339,8 @@
       <c r="L60" s="4">
         <v>1</v>
       </c>
-      <c r="M60" s="5">
-        <v>2.08</v>
+      <c r="M60" s="6">
+        <v>2080</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3362,8 +3378,8 @@
       <c r="L61" s="4">
         <v>1</v>
       </c>
-      <c r="M61" s="5">
-        <v>2.0619999999999998</v>
+      <c r="M61" s="6">
+        <v>2062</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3403,8 +3419,8 @@
       <c r="L62" s="4">
         <v>3</v>
       </c>
-      <c r="M62" s="5">
-        <v>1.931</v>
+      <c r="M62" s="6">
+        <v>1931</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3442,8 +3458,8 @@
       <c r="L63" s="4">
         <v>2</v>
       </c>
-      <c r="M63" s="5">
-        <v>1.8049999999999999</v>
+      <c r="M63" s="6">
+        <v>1805</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3483,8 +3499,8 @@
       <c r="L64" s="4">
         <v>11</v>
       </c>
-      <c r="M64" s="5">
-        <v>1.613</v>
+      <c r="M64" s="6">
+        <v>1613</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3522,8 +3538,8 @@
       <c r="L65" s="4">
         <v>1</v>
       </c>
-      <c r="M65" s="5">
-        <v>1.4079999999999999</v>
+      <c r="M65" s="6">
+        <v>1408</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3563,8 +3579,8 @@
       <c r="L66" s="4">
         <v>4</v>
       </c>
-      <c r="M66" s="5">
-        <v>1.486</v>
+      <c r="M66" s="6">
+        <v>1486</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3602,8 +3618,8 @@
       <c r="L67" s="4">
         <v>2</v>
       </c>
-      <c r="M67" s="5">
-        <v>1.4570000000000001</v>
+      <c r="M67" s="6">
+        <v>1457</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3643,8 +3659,8 @@
       <c r="L68" s="4">
         <v>3</v>
       </c>
-      <c r="M68" s="5">
-        <v>1.2150000000000001</v>
+      <c r="M68" s="6">
+        <v>1215</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3682,8 +3698,8 @@
       <c r="L69" s="4">
         <v>2</v>
       </c>
-      <c r="M69" s="5">
-        <v>1.2130000000000001</v>
+      <c r="M69" s="6">
+        <v>1213</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3723,8 +3739,8 @@
       <c r="L70" s="4">
         <v>2</v>
       </c>
-      <c r="M70" s="5">
-        <v>1.0109999999999999</v>
+      <c r="M70" s="6">
+        <v>1011</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3762,7 +3778,7 @@
       <c r="L71" s="4">
         <v>4</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="8">
         <v>979</v>
       </c>
     </row>
@@ -3803,7 +3819,7 @@
       <c r="L72" s="4">
         <v>4</v>
       </c>
-      <c r="M72" s="5">
+      <c r="M72" s="8">
         <v>893</v>
       </c>
     </row>
@@ -3842,7 +3858,7 @@
       <c r="L73" s="4">
         <v>4</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="8">
         <v>850</v>
       </c>
     </row>
@@ -3883,7 +3899,7 @@
       <c r="L74" s="4">
         <v>2</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="8">
         <v>665</v>
       </c>
     </row>
@@ -3922,7 +3938,7 @@
       <c r="L75" s="4">
         <v>2</v>
       </c>
-      <c r="M75" s="5">
+      <c r="M75" s="8">
         <v>745</v>
       </c>
     </row>
@@ -3963,7 +3979,7 @@
       <c r="L76" s="4">
         <v>4</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="8">
         <v>544</v>
       </c>
     </row>
@@ -4002,7 +4018,7 @@
       <c r="L77" s="4">
         <v>1</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="8">
         <v>625</v>
       </c>
     </row>
@@ -4043,7 +4059,7 @@
       <c r="L78" s="4">
         <v>1</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="8">
         <v>438</v>
       </c>
     </row>
@@ -4082,7 +4098,7 @@
       <c r="L79" s="4">
         <v>3</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="8">
         <v>603</v>
       </c>
     </row>
@@ -4123,7 +4139,7 @@
       <c r="L80" s="4">
         <v>1</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="8">
         <v>535</v>
       </c>
     </row>
@@ -4162,7 +4178,7 @@
       <c r="L81" s="4">
         <v>10</v>
       </c>
-      <c r="M81" s="5">
+      <c r="M81" s="8">
         <v>815</v>
       </c>
     </row>
@@ -4170,46 +4186,46 @@
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
-        <v>2.6749999999999998</v>
-      </c>
-      <c r="D82" s="5">
-        <v>3.1280000000000001</v>
-      </c>
-      <c r="E82" s="5">
-        <v>5.76</v>
-      </c>
-      <c r="F82" s="5">
-        <v>2.8839999999999999</v>
-      </c>
-      <c r="G82" s="5">
-        <v>6.4969999999999999</v>
-      </c>
-      <c r="H82" s="5">
-        <v>7.117</v>
-      </c>
-      <c r="I82" s="5">
-        <v>3.2679999999999998</v>
-      </c>
-      <c r="J82" s="5">
+      <c r="B82" s="7"/>
+      <c r="C82" s="6">
+        <v>2675</v>
+      </c>
+      <c r="D82" s="6">
+        <v>3128</v>
+      </c>
+      <c r="E82" s="6">
+        <v>5760</v>
+      </c>
+      <c r="F82" s="6">
+        <v>2884</v>
+      </c>
+      <c r="G82" s="6">
+        <v>6497</v>
+      </c>
+      <c r="H82" s="6">
+        <v>7117</v>
+      </c>
+      <c r="I82" s="6">
+        <v>3268</v>
+      </c>
+      <c r="J82" s="8">
         <v>321</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="8">
         <v>12</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="8">
         <v>97</v>
       </c>
-      <c r="M82" s="5">
-        <v>31.759</v>
+      <c r="M82" s="6">
+        <v>31759</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="11"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4263,11 +4279,11 @@
       <c r="F84" s="4">
         <v>2</v>
       </c>
-      <c r="G84" s="4">
-        <v>3.6080000000000001</v>
-      </c>
-      <c r="H84" s="4">
-        <v>1.8839999999999999</v>
+      <c r="G84" s="5">
+        <v>3608</v>
+      </c>
+      <c r="H84" s="5">
+        <v>1884</v>
       </c>
       <c r="I84" s="4">
         <v>200</v>
@@ -4281,8 +4297,8 @@
       <c r="L84" s="4">
         <v>94</v>
       </c>
-      <c r="M84" s="5">
-        <v>6.0540000000000003</v>
+      <c r="M84" s="6">
+        <v>6054</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4302,11 +4318,11 @@
       <c r="F85" s="4">
         <v>5</v>
       </c>
-      <c r="G85" s="4">
-        <v>3.661</v>
-      </c>
-      <c r="H85" s="4">
-        <v>1.401</v>
+      <c r="G85" s="5">
+        <v>3661</v>
+      </c>
+      <c r="H85" s="5">
+        <v>1401</v>
       </c>
       <c r="I85" s="4">
         <v>260</v>
@@ -4320,8 +4336,8 @@
       <c r="L85" s="4">
         <v>16</v>
       </c>
-      <c r="M85" s="5">
-        <v>5.8520000000000003</v>
+      <c r="M85" s="6">
+        <v>5852</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4343,8 +4359,8 @@
       <c r="F86" s="4">
         <v>62</v>
       </c>
-      <c r="G86" s="4">
-        <v>1.72</v>
+      <c r="G86" s="5">
+        <v>1720</v>
       </c>
       <c r="H86" s="4">
         <v>822</v>
@@ -4361,8 +4377,8 @@
       <c r="L86" s="4">
         <v>8</v>
       </c>
-      <c r="M86" s="5">
-        <v>3.4420000000000002</v>
+      <c r="M86" s="6">
+        <v>3442</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4382,8 +4398,8 @@
       <c r="F87" s="4">
         <v>100</v>
       </c>
-      <c r="G87" s="4">
-        <v>1.1599999999999999</v>
+      <c r="G87" s="5">
+        <v>1160</v>
       </c>
       <c r="H87" s="4">
         <v>343</v>
@@ -4400,8 +4416,8 @@
       <c r="L87" s="4">
         <v>13</v>
       </c>
-      <c r="M87" s="5">
-        <v>3.0550000000000002</v>
+      <c r="M87" s="6">
+        <v>3055</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4441,8 +4457,8 @@
       <c r="L88" s="4">
         <v>3</v>
       </c>
-      <c r="M88" s="5">
-        <v>2.6680000000000001</v>
+      <c r="M88" s="6">
+        <v>2668</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4480,8 +4496,8 @@
       <c r="L89" s="4">
         <v>3</v>
       </c>
-      <c r="M89" s="5">
-        <v>2.4750000000000001</v>
+      <c r="M89" s="6">
+        <v>2475</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4521,8 +4537,8 @@
       <c r="L90" s="4">
         <v>3</v>
       </c>
-      <c r="M90" s="5">
-        <v>1.752</v>
+      <c r="M90" s="6">
+        <v>1752</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4560,8 +4576,8 @@
       <c r="L91" s="4">
         <v>3</v>
       </c>
-      <c r="M91" s="5">
-        <v>1.7010000000000001</v>
+      <c r="M91" s="6">
+        <v>1701</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4601,8 +4617,8 @@
       <c r="L92" s="4">
         <v>3</v>
       </c>
-      <c r="M92" s="5">
-        <v>2.0699999999999998</v>
+      <c r="M92" s="6">
+        <v>2070</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4640,8 +4656,8 @@
       <c r="L93" s="4">
         <v>9</v>
       </c>
-      <c r="M93" s="5">
-        <v>2.0880000000000001</v>
+      <c r="M93" s="6">
+        <v>2088</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4681,8 +4697,8 @@
       <c r="L94" s="4">
         <v>6</v>
       </c>
-      <c r="M94" s="5">
-        <v>1.4359999999999999</v>
+      <c r="M94" s="6">
+        <v>1436</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4720,8 +4736,8 @@
       <c r="L95" s="4">
         <v>3</v>
       </c>
-      <c r="M95" s="5">
-        <v>1.597</v>
+      <c r="M95" s="6">
+        <v>1597</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4761,8 +4777,8 @@
       <c r="L96" s="4">
         <v>2</v>
       </c>
-      <c r="M96" s="5">
-        <v>1.3</v>
+      <c r="M96" s="6">
+        <v>1300</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4800,8 +4816,8 @@
       <c r="L97" s="4">
         <v>4</v>
       </c>
-      <c r="M97" s="5">
-        <v>1.21</v>
+      <c r="M97" s="6">
+        <v>1210</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4841,8 +4857,8 @@
       <c r="L98" s="4">
         <v>2</v>
       </c>
-      <c r="M98" s="5">
-        <v>1.1459999999999999</v>
+      <c r="M98" s="6">
+        <v>1146</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4880,8 +4896,8 @@
       <c r="L99" s="4">
         <v>1</v>
       </c>
-      <c r="M99" s="5">
-        <v>1.0169999999999999</v>
+      <c r="M99" s="6">
+        <v>1017</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4921,7 +4937,7 @@
       <c r="L100" s="4">
         <v>4</v>
       </c>
-      <c r="M100" s="5">
+      <c r="M100" s="8">
         <v>650</v>
       </c>
     </row>
@@ -4960,7 +4976,7 @@
       <c r="L101" s="4">
         <v>1</v>
       </c>
-      <c r="M101" s="5">
+      <c r="M101" s="8">
         <v>746</v>
       </c>
     </row>
@@ -5001,7 +5017,7 @@
       <c r="L102" s="4">
         <v>2</v>
       </c>
-      <c r="M102" s="5">
+      <c r="M102" s="8">
         <v>498</v>
       </c>
     </row>
@@ -5040,7 +5056,7 @@
       <c r="L103" s="4">
         <v>1</v>
       </c>
-      <c r="M103" s="5">
+      <c r="M103" s="8">
         <v>579</v>
       </c>
     </row>
@@ -5081,7 +5097,7 @@
       <c r="L104" s="4">
         <v>2</v>
       </c>
-      <c r="M104" s="5">
+      <c r="M104" s="8">
         <v>406</v>
       </c>
     </row>
@@ -5120,7 +5136,7 @@
       <c r="L105" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M105" s="5">
+      <c r="M105" s="8">
         <v>499</v>
       </c>
     </row>
@@ -5161,7 +5177,7 @@
       <c r="L106" s="4">
         <v>2</v>
       </c>
-      <c r="M106" s="5">
+      <c r="M106" s="8">
         <v>512</v>
       </c>
     </row>
@@ -5200,7 +5216,7 @@
       <c r="L107" s="4">
         <v>8</v>
       </c>
-      <c r="M107" s="5">
+      <c r="M107" s="8">
         <v>796</v>
       </c>
     </row>
@@ -5208,46 +5224,46 @@
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
-        <v>4.3529999999999998</v>
-      </c>
-      <c r="D108" s="5">
-        <v>7.3289999999999997</v>
-      </c>
-      <c r="E108" s="5">
-        <v>6.3049999999999997</v>
-      </c>
-      <c r="F108" s="5">
-        <v>2.9929999999999999</v>
-      </c>
-      <c r="G108" s="5">
-        <v>12.398999999999999</v>
-      </c>
-      <c r="H108" s="5">
-        <v>7.3970000000000002</v>
-      </c>
-      <c r="I108" s="5">
-        <v>2.4220000000000002</v>
-      </c>
-      <c r="J108" s="5">
+      <c r="B108" s="7"/>
+      <c r="C108" s="6">
+        <v>4353</v>
+      </c>
+      <c r="D108" s="6">
+        <v>7329</v>
+      </c>
+      <c r="E108" s="6">
+        <v>6305</v>
+      </c>
+      <c r="F108" s="6">
+        <v>2993</v>
+      </c>
+      <c r="G108" s="6">
+        <v>12399</v>
+      </c>
+      <c r="H108" s="6">
+        <v>7397</v>
+      </c>
+      <c r="I108" s="6">
+        <v>2422</v>
+      </c>
+      <c r="J108" s="8">
         <v>151</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108" s="8">
         <v>7</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="8">
         <v>193</v>
       </c>
-      <c r="M108" s="5">
-        <v>43.548999999999999</v>
+      <c r="M108" s="6">
+        <v>43549</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="11"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5319,7 +5335,7 @@
       <c r="L110" s="4">
         <v>5</v>
       </c>
-      <c r="M110" s="5">
+      <c r="M110" s="8">
         <v>583</v>
       </c>
     </row>
@@ -5358,7 +5374,7 @@
       <c r="L111" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M111" s="5">
+      <c r="M111" s="8">
         <v>600</v>
       </c>
     </row>
@@ -5399,7 +5415,7 @@
       <c r="L112" s="4">
         <v>2</v>
       </c>
-      <c r="M112" s="5">
+      <c r="M112" s="8">
         <v>389</v>
       </c>
     </row>
@@ -5438,7 +5454,7 @@
       <c r="L113" s="4">
         <v>1</v>
       </c>
-      <c r="M113" s="5">
+      <c r="M113" s="8">
         <v>405</v>
       </c>
     </row>
@@ -5479,7 +5495,7 @@
       <c r="L114" s="4">
         <v>1</v>
       </c>
-      <c r="M114" s="5">
+      <c r="M114" s="8">
         <v>373</v>
       </c>
     </row>
@@ -5518,7 +5534,7 @@
       <c r="L115" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M115" s="5">
+      <c r="M115" s="8">
         <v>319</v>
       </c>
     </row>
@@ -5559,7 +5575,7 @@
       <c r="L116" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M116" s="5">
+      <c r="M116" s="8">
         <v>345</v>
       </c>
     </row>
@@ -5598,7 +5614,7 @@
       <c r="L117" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M117" s="5">
+      <c r="M117" s="8">
         <v>291</v>
       </c>
     </row>
@@ -5639,7 +5655,7 @@
       <c r="L118" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M118" s="5">
+      <c r="M118" s="8">
         <v>283</v>
       </c>
     </row>
@@ -5678,7 +5694,7 @@
       <c r="L119" s="4">
         <v>1</v>
       </c>
-      <c r="M119" s="5">
+      <c r="M119" s="8">
         <v>279</v>
       </c>
     </row>
@@ -5719,7 +5735,7 @@
       <c r="L120" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M120" s="5">
+      <c r="M120" s="8">
         <v>275</v>
       </c>
     </row>
@@ -5758,7 +5774,7 @@
       <c r="L121" s="4">
         <v>2</v>
       </c>
-      <c r="M121" s="5">
+      <c r="M121" s="8">
         <v>264</v>
       </c>
     </row>
@@ -5799,7 +5815,7 @@
       <c r="L122" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M122" s="5">
+      <c r="M122" s="8">
         <v>307</v>
       </c>
     </row>
@@ -5838,7 +5854,7 @@
       <c r="L123" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M123" s="5">
+      <c r="M123" s="8">
         <v>259</v>
       </c>
     </row>
@@ -5879,7 +5895,7 @@
       <c r="L124" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M124" s="5">
+      <c r="M124" s="8">
         <v>274</v>
       </c>
     </row>
@@ -5918,7 +5934,7 @@
       <c r="L125" s="4">
         <v>1</v>
       </c>
-      <c r="M125" s="5">
+      <c r="M125" s="8">
         <v>275</v>
       </c>
     </row>
@@ -5959,7 +5975,7 @@
       <c r="L126" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M126" s="5">
+      <c r="M126" s="8">
         <v>251</v>
       </c>
     </row>
@@ -5998,7 +6014,7 @@
       <c r="L127" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M127" s="5">
+      <c r="M127" s="8">
         <v>278</v>
       </c>
     </row>
@@ -6039,7 +6055,7 @@
       <c r="L128" s="4">
         <v>1</v>
       </c>
-      <c r="M128" s="5">
+      <c r="M128" s="8">
         <v>228</v>
       </c>
     </row>
@@ -6078,7 +6094,7 @@
       <c r="L129" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M129" s="5">
+      <c r="M129" s="8">
         <v>212</v>
       </c>
     </row>
@@ -6119,7 +6135,7 @@
       <c r="L130" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="8">
         <v>153</v>
       </c>
     </row>
@@ -6158,7 +6174,7 @@
       <c r="L131" s="4">
         <v>1</v>
       </c>
-      <c r="M131" s="5">
+      <c r="M131" s="8">
         <v>212</v>
       </c>
     </row>
@@ -6199,7 +6215,7 @@
       <c r="L132" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M132" s="5">
+      <c r="M132" s="8">
         <v>245</v>
       </c>
     </row>
@@ -6238,7 +6254,7 @@
       <c r="L133" s="4">
         <v>2</v>
       </c>
-      <c r="M133" s="5">
+      <c r="M133" s="8">
         <v>383</v>
       </c>
     </row>
@@ -6246,46 +6262,46 @@
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
+      <c r="B134" s="7"/>
+      <c r="C134" s="8">
         <v>828</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134" s="8">
         <v>547</v>
       </c>
-      <c r="E134" s="5">
-        <v>1.411</v>
-      </c>
-      <c r="F134" s="5">
+      <c r="E134" s="6">
+        <v>1411</v>
+      </c>
+      <c r="F134" s="8">
         <v>968</v>
       </c>
-      <c r="G134" s="5">
-        <v>1.431</v>
-      </c>
-      <c r="H134" s="5">
-        <v>1.4850000000000001</v>
-      </c>
-      <c r="I134" s="5">
+      <c r="G134" s="6">
+        <v>1431</v>
+      </c>
+      <c r="H134" s="6">
+        <v>1485</v>
+      </c>
+      <c r="I134" s="8">
         <v>739</v>
       </c>
-      <c r="J134" s="5">
+      <c r="J134" s="8">
         <v>53</v>
       </c>
-      <c r="K134" s="5">
+      <c r="K134" s="8">
         <v>4</v>
       </c>
-      <c r="L134" s="5">
+      <c r="L134" s="8">
         <v>17</v>
       </c>
-      <c r="M134" s="5">
-        <v>7.4829999999999997</v>
+      <c r="M134" s="6">
+        <v>7483</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="11"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -6339,11 +6355,11 @@
       <c r="F136" s="4">
         <v>2</v>
       </c>
-      <c r="G136" s="4">
-        <v>1.661</v>
-      </c>
-      <c r="H136" s="4">
-        <v>1.2090000000000001</v>
+      <c r="G136" s="5">
+        <v>1661</v>
+      </c>
+      <c r="H136" s="5">
+        <v>1209</v>
       </c>
       <c r="I136" s="4">
         <v>144</v>
@@ -6357,8 +6373,8 @@
       <c r="L136" s="4">
         <v>27</v>
       </c>
-      <c r="M136" s="5">
-        <v>3.1179999999999999</v>
+      <c r="M136" s="6">
+        <v>3118</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6378,8 +6394,8 @@
       <c r="F137" s="4">
         <v>2</v>
       </c>
-      <c r="G137" s="4">
-        <v>1.5129999999999999</v>
+      <c r="G137" s="5">
+        <v>1513</v>
       </c>
       <c r="H137" s="4">
         <v>886</v>
@@ -6396,8 +6412,8 @@
       <c r="L137" s="4">
         <v>7</v>
       </c>
-      <c r="M137" s="5">
-        <v>2.7690000000000001</v>
+      <c r="M137" s="6">
+        <v>2769</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6437,8 +6453,8 @@
       <c r="L138" s="4">
         <v>3</v>
       </c>
-      <c r="M138" s="5">
-        <v>1.583</v>
+      <c r="M138" s="6">
+        <v>1583</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6476,8 +6492,8 @@
       <c r="L139" s="4">
         <v>3</v>
       </c>
-      <c r="M139" s="5">
-        <v>1.2470000000000001</v>
+      <c r="M139" s="6">
+        <v>1247</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6517,8 +6533,8 @@
       <c r="L140" s="4">
         <v>3</v>
       </c>
-      <c r="M140" s="5">
-        <v>1.216</v>
+      <c r="M140" s="6">
+        <v>1216</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6556,8 +6572,8 @@
       <c r="L141" s="4">
         <v>6</v>
       </c>
-      <c r="M141" s="5">
-        <v>1.006</v>
+      <c r="M141" s="6">
+        <v>1006</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6597,7 +6613,7 @@
       <c r="L142" s="4">
         <v>14</v>
       </c>
-      <c r="M142" s="5">
+      <c r="M142" s="8">
         <v>932</v>
       </c>
     </row>
@@ -6636,7 +6652,7 @@
       <c r="L143" s="4">
         <v>10</v>
       </c>
-      <c r="M143" s="5">
+      <c r="M143" s="8">
         <v>947</v>
       </c>
     </row>
@@ -6677,7 +6693,7 @@
       <c r="L144" s="4">
         <v>6</v>
       </c>
-      <c r="M144" s="5">
+      <c r="M144" s="8">
         <v>934</v>
       </c>
     </row>
@@ -6716,8 +6732,8 @@
       <c r="L145" s="4">
         <v>6</v>
       </c>
-      <c r="M145" s="5">
-        <v>1.014</v>
+      <c r="M145" s="6">
+        <v>1014</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6757,7 +6773,7 @@
       <c r="L146" s="4">
         <v>3</v>
       </c>
-      <c r="M146" s="5">
+      <c r="M146" s="8">
         <v>836</v>
       </c>
     </row>
@@ -6796,7 +6812,7 @@
       <c r="L147" s="4">
         <v>13</v>
       </c>
-      <c r="M147" s="5">
+      <c r="M147" s="8">
         <v>854</v>
       </c>
     </row>
@@ -6837,7 +6853,7 @@
       <c r="L148" s="4">
         <v>4</v>
       </c>
-      <c r="M148" s="5">
+      <c r="M148" s="8">
         <v>782</v>
       </c>
     </row>
@@ -6876,7 +6892,7 @@
       <c r="L149" s="4">
         <v>5</v>
       </c>
-      <c r="M149" s="5">
+      <c r="M149" s="8">
         <v>791</v>
       </c>
     </row>
@@ -6917,7 +6933,7 @@
       <c r="L150" s="4">
         <v>7</v>
       </c>
-      <c r="M150" s="5">
+      <c r="M150" s="8">
         <v>639</v>
       </c>
     </row>
@@ -6956,7 +6972,7 @@
       <c r="L151" s="4">
         <v>4</v>
       </c>
-      <c r="M151" s="5">
+      <c r="M151" s="8">
         <v>634</v>
       </c>
     </row>
@@ -6997,7 +7013,7 @@
       <c r="L152" s="4">
         <v>3</v>
       </c>
-      <c r="M152" s="5">
+      <c r="M152" s="8">
         <v>599</v>
       </c>
     </row>
@@ -7036,7 +7052,7 @@
       <c r="L153" s="4">
         <v>9</v>
       </c>
-      <c r="M153" s="5">
+      <c r="M153" s="8">
         <v>570</v>
       </c>
     </row>
@@ -7077,7 +7093,7 @@
       <c r="L154" s="4">
         <v>5</v>
       </c>
-      <c r="M154" s="5">
+      <c r="M154" s="8">
         <v>409</v>
       </c>
     </row>
@@ -7116,7 +7132,7 @@
       <c r="L155" s="4">
         <v>13</v>
       </c>
-      <c r="M155" s="5">
+      <c r="M155" s="8">
         <v>488</v>
       </c>
     </row>
@@ -7157,7 +7173,7 @@
       <c r="L156" s="4">
         <v>3</v>
       </c>
-      <c r="M156" s="5">
+      <c r="M156" s="8">
         <v>322</v>
       </c>
     </row>
@@ -7196,7 +7212,7 @@
       <c r="L157" s="4">
         <v>12</v>
       </c>
-      <c r="M157" s="5">
+      <c r="M157" s="8">
         <v>467</v>
       </c>
     </row>
@@ -7237,7 +7253,7 @@
       <c r="L158" s="4">
         <v>16</v>
       </c>
-      <c r="M158" s="5">
+      <c r="M158" s="8">
         <v>580</v>
       </c>
     </row>
@@ -7276,7 +7292,7 @@
       <c r="L159" s="4">
         <v>48</v>
       </c>
-      <c r="M159" s="5">
+      <c r="M159" s="8">
         <v>866</v>
       </c>
     </row>
@@ -7284,46 +7300,46 @@
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="5">
-        <v>3.0009999999999999</v>
-      </c>
-      <c r="D160" s="5">
-        <v>2.6589999999999998</v>
-      </c>
-      <c r="E160" s="5">
-        <v>3.3570000000000002</v>
-      </c>
-      <c r="F160" s="5">
-        <v>1.758</v>
-      </c>
-      <c r="G160" s="5">
-        <v>5.8940000000000001</v>
-      </c>
-      <c r="H160" s="5">
-        <v>4.9710000000000001</v>
-      </c>
-      <c r="I160" s="5">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="J160" s="5">
+      <c r="B160" s="7"/>
+      <c r="C160" s="6">
+        <v>3001</v>
+      </c>
+      <c r="D160" s="6">
+        <v>2659</v>
+      </c>
+      <c r="E160" s="6">
+        <v>3357</v>
+      </c>
+      <c r="F160" s="6">
+        <v>1758</v>
+      </c>
+      <c r="G160" s="6">
+        <v>5894</v>
+      </c>
+      <c r="H160" s="6">
+        <v>4971</v>
+      </c>
+      <c r="I160" s="6">
+        <v>1594</v>
+      </c>
+      <c r="J160" s="8">
         <v>128</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160" s="8">
         <v>11</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="8">
         <v>230</v>
       </c>
-      <c r="M160" s="5">
-        <v>23.603000000000002</v>
+      <c r="M160" s="6">
+        <v>23603</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="11"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -7395,8 +7411,8 @@
       <c r="L162" s="4">
         <v>37</v>
       </c>
-      <c r="M162" s="5">
-        <v>1.833</v>
+      <c r="M162" s="6">
+        <v>1833</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7434,8 +7450,8 @@
       <c r="L163" s="4">
         <v>3</v>
       </c>
-      <c r="M163" s="5">
-        <v>1.597</v>
+      <c r="M163" s="6">
+        <v>1597</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7475,7 +7491,7 @@
       <c r="L164" s="4">
         <v>5</v>
       </c>
-      <c r="M164" s="5">
+      <c r="M164" s="8">
         <v>973</v>
       </c>
     </row>
@@ -7514,7 +7530,7 @@
       <c r="L165" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M165" s="5">
+      <c r="M165" s="8">
         <v>851</v>
       </c>
     </row>
@@ -7555,7 +7571,7 @@
       <c r="L166" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M166" s="5">
+      <c r="M166" s="8">
         <v>721</v>
       </c>
     </row>
@@ -7594,7 +7610,7 @@
       <c r="L167" s="4">
         <v>1</v>
       </c>
-      <c r="M167" s="5">
+      <c r="M167" s="8">
         <v>629</v>
       </c>
     </row>
@@ -7635,7 +7651,7 @@
       <c r="L168" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M168" s="5">
+      <c r="M168" s="8">
         <v>562</v>
       </c>
     </row>
@@ -7674,7 +7690,7 @@
       <c r="L169" s="4">
         <v>1</v>
       </c>
-      <c r="M169" s="5">
+      <c r="M169" s="8">
         <v>570</v>
       </c>
     </row>
@@ -7715,7 +7731,7 @@
       <c r="L170" s="4">
         <v>1</v>
       </c>
-      <c r="M170" s="5">
+      <c r="M170" s="8">
         <v>507</v>
       </c>
     </row>
@@ -7754,7 +7770,7 @@
       <c r="L171" s="4">
         <v>2</v>
       </c>
-      <c r="M171" s="5">
+      <c r="M171" s="8">
         <v>581</v>
       </c>
     </row>
@@ -7795,7 +7811,7 @@
       <c r="L172" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M172" s="5">
+      <c r="M172" s="8">
         <v>448</v>
       </c>
     </row>
@@ -7834,7 +7850,7 @@
       <c r="L173" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M173" s="5">
+      <c r="M173" s="8">
         <v>536</v>
       </c>
     </row>
@@ -7875,7 +7891,7 @@
       <c r="L174" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M174" s="5">
+      <c r="M174" s="8">
         <v>422</v>
       </c>
     </row>
@@ -7914,7 +7930,7 @@
       <c r="L175" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M175" s="5">
+      <c r="M175" s="8">
         <v>448</v>
       </c>
     </row>
@@ -7955,7 +7971,7 @@
       <c r="L176" s="4">
         <v>1</v>
       </c>
-      <c r="M176" s="5">
+      <c r="M176" s="8">
         <v>471</v>
       </c>
     </row>
@@ -7994,7 +8010,7 @@
       <c r="L177" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M177" s="5">
+      <c r="M177" s="8">
         <v>437</v>
       </c>
     </row>
@@ -8035,7 +8051,7 @@
       <c r="L178" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M178" s="5">
+      <c r="M178" s="8">
         <v>385</v>
       </c>
     </row>
@@ -8074,7 +8090,7 @@
       <c r="L179" s="4">
         <v>2</v>
       </c>
-      <c r="M179" s="5">
+      <c r="M179" s="8">
         <v>360</v>
       </c>
     </row>
@@ -8115,7 +8131,7 @@
       <c r="L180" s="4">
         <v>2</v>
       </c>
-      <c r="M180" s="5">
+      <c r="M180" s="8">
         <v>284</v>
       </c>
     </row>
@@ -8154,7 +8170,7 @@
       <c r="L181" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M181" s="5">
+      <c r="M181" s="8">
         <v>339</v>
       </c>
     </row>
@@ -8195,7 +8211,7 @@
       <c r="L182" s="4">
         <v>1</v>
       </c>
-      <c r="M182" s="5">
+      <c r="M182" s="8">
         <v>238</v>
       </c>
     </row>
@@ -8234,7 +8250,7 @@
       <c r="L183" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M183" s="5">
+      <c r="M183" s="8">
         <v>257</v>
       </c>
     </row>
@@ -8275,7 +8291,7 @@
       <c r="L184" s="4">
         <v>2</v>
       </c>
-      <c r="M184" s="5">
+      <c r="M184" s="8">
         <v>298</v>
       </c>
     </row>
@@ -8314,7 +8330,7 @@
       <c r="L185" s="4">
         <v>7</v>
       </c>
-      <c r="M185" s="5">
+      <c r="M185" s="8">
         <v>485</v>
       </c>
     </row>
@@ -8322,46 +8338,46 @@
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="5">
-        <v>2.2029999999999998</v>
-      </c>
-      <c r="D186" s="5">
-        <v>1.54</v>
-      </c>
-      <c r="E186" s="5">
-        <v>1.859</v>
-      </c>
-      <c r="F186" s="5">
-        <v>1.113</v>
-      </c>
-      <c r="G186" s="5">
-        <v>3.327</v>
-      </c>
-      <c r="H186" s="5">
-        <v>3.04</v>
-      </c>
-      <c r="I186" s="5">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="J186" s="5">
+      <c r="B186" s="7"/>
+      <c r="C186" s="6">
+        <v>2203</v>
+      </c>
+      <c r="D186" s="6">
+        <v>1540</v>
+      </c>
+      <c r="E186" s="6">
+        <v>1859</v>
+      </c>
+      <c r="F186" s="6">
+        <v>1113</v>
+      </c>
+      <c r="G186" s="6">
+        <v>3327</v>
+      </c>
+      <c r="H186" s="6">
+        <v>3040</v>
+      </c>
+      <c r="I186" s="6">
+        <v>1013</v>
+      </c>
+      <c r="J186" s="8">
         <v>70</v>
       </c>
-      <c r="K186" s="5">
+      <c r="K186" s="8">
         <v>2</v>
       </c>
-      <c r="L186" s="5">
+      <c r="L186" s="8">
         <v>65</v>
       </c>
-      <c r="M186" s="5">
-        <v>14.231999999999999</v>
+      <c r="M186" s="6">
+        <v>14232</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="8"/>
+      <c r="B187" s="11"/>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
@@ -8415,11 +8431,11 @@
       <c r="F188" s="4">
         <v>3</v>
       </c>
-      <c r="G188" s="4">
-        <v>3.3220000000000001</v>
-      </c>
-      <c r="H188" s="4">
-        <v>4.6609999999999996</v>
+      <c r="G188" s="5">
+        <v>3322</v>
+      </c>
+      <c r="H188" s="5">
+        <v>4661</v>
       </c>
       <c r="I188" s="4">
         <v>627</v>
@@ -8433,8 +8449,8 @@
       <c r="L188" s="4">
         <v>61</v>
       </c>
-      <c r="M188" s="5">
-        <v>8.8930000000000007</v>
+      <c r="M188" s="6">
+        <v>8893</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -8454,11 +8470,11 @@
       <c r="F189" s="4">
         <v>7</v>
       </c>
-      <c r="G189" s="4">
-        <v>3.016</v>
-      </c>
-      <c r="H189" s="4">
-        <v>4.5910000000000002</v>
+      <c r="G189" s="5">
+        <v>3016</v>
+      </c>
+      <c r="H189" s="5">
+        <v>4591</v>
       </c>
       <c r="I189" s="4">
         <v>879</v>
@@ -8472,8 +8488,8 @@
       <c r="L189" s="4">
         <v>2</v>
       </c>
-      <c r="M189" s="5">
-        <v>8.8010000000000002</v>
+      <c r="M189" s="6">
+        <v>8801</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -8495,14 +8511,14 @@
       <c r="F190" s="4">
         <v>82</v>
       </c>
-      <c r="G190" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="H190" s="4">
-        <v>1.9750000000000001</v>
-      </c>
-      <c r="I190" s="4">
-        <v>1.55</v>
+      <c r="G190" s="5">
+        <v>1800</v>
+      </c>
+      <c r="H190" s="5">
+        <v>1975</v>
+      </c>
+      <c r="I190" s="5">
+        <v>1550</v>
       </c>
       <c r="J190" s="4">
         <v>101</v>
@@ -8513,8 +8529,8 @@
       <c r="L190" s="4">
         <v>9</v>
       </c>
-      <c r="M190" s="5">
-        <v>5.7839999999999998</v>
+      <c r="M190" s="6">
+        <v>5784</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -8534,14 +8550,14 @@
       <c r="F191" s="4">
         <v>205</v>
       </c>
-      <c r="G191" s="4">
-        <v>1.736</v>
-      </c>
-      <c r="H191" s="4">
-        <v>1.1020000000000001</v>
-      </c>
-      <c r="I191" s="4">
-        <v>1.6910000000000001</v>
+      <c r="G191" s="5">
+        <v>1736</v>
+      </c>
+      <c r="H191" s="5">
+        <v>1102</v>
+      </c>
+      <c r="I191" s="5">
+        <v>1691</v>
       </c>
       <c r="J191" s="4">
         <v>89</v>
@@ -8552,8 +8568,8 @@
       <c r="L191" s="4">
         <v>1</v>
       </c>
-      <c r="M191" s="5">
-        <v>5.6769999999999996</v>
+      <c r="M191" s="6">
+        <v>5677</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -8578,11 +8594,11 @@
       <c r="G192" s="4">
         <v>996</v>
       </c>
-      <c r="H192" s="4">
-        <v>1.6459999999999999</v>
-      </c>
-      <c r="I192" s="4">
-        <v>1.5580000000000001</v>
+      <c r="H192" s="5">
+        <v>1646</v>
+      </c>
+      <c r="I192" s="5">
+        <v>1558</v>
       </c>
       <c r="J192" s="4">
         <v>219</v>
@@ -8593,8 +8609,8 @@
       <c r="L192" s="4">
         <v>4</v>
       </c>
-      <c r="M192" s="5">
-        <v>5.3760000000000003</v>
+      <c r="M192" s="6">
+        <v>5376</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -8614,14 +8630,14 @@
       <c r="F193" s="4">
         <v>652</v>
       </c>
-      <c r="G193" s="4">
-        <v>1.48</v>
+      <c r="G193" s="5">
+        <v>1480</v>
       </c>
       <c r="H193" s="4">
         <v>921</v>
       </c>
-      <c r="I193" s="4">
-        <v>1.1679999999999999</v>
+      <c r="I193" s="5">
+        <v>1168</v>
       </c>
       <c r="J193" s="4">
         <v>118</v>
@@ -8632,8 +8648,8 @@
       <c r="L193" s="4">
         <v>10</v>
       </c>
-      <c r="M193" s="5">
-        <v>5.3289999999999997</v>
+      <c r="M193" s="6">
+        <v>5329</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -8658,11 +8674,11 @@
       <c r="G194" s="4">
         <v>754</v>
       </c>
-      <c r="H194" s="4">
-        <v>1.4670000000000001</v>
-      </c>
-      <c r="I194" s="4">
-        <v>1.0589999999999999</v>
+      <c r="H194" s="5">
+        <v>1467</v>
+      </c>
+      <c r="I194" s="5">
+        <v>1059</v>
       </c>
       <c r="J194" s="4">
         <v>187</v>
@@ -8673,8 +8689,8 @@
       <c r="L194" s="4">
         <v>2</v>
       </c>
-      <c r="M194" s="5">
-        <v>4.6529999999999996</v>
+      <c r="M194" s="6">
+        <v>4653</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -8694,8 +8710,8 @@
       <c r="F195" s="4">
         <v>415</v>
       </c>
-      <c r="G195" s="4">
-        <v>1.234</v>
+      <c r="G195" s="5">
+        <v>1234</v>
       </c>
       <c r="H195" s="4">
         <v>813</v>
@@ -8712,8 +8728,8 @@
       <c r="L195" s="4">
         <v>7</v>
       </c>
-      <c r="M195" s="5">
-        <v>4.3529999999999998</v>
+      <c r="M195" s="6">
+        <v>4353</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -8735,11 +8751,11 @@
       <c r="F196" s="4">
         <v>495</v>
       </c>
-      <c r="G196" s="4">
-        <v>1.0569999999999999</v>
-      </c>
-      <c r="H196" s="4">
-        <v>1.619</v>
+      <c r="G196" s="5">
+        <v>1057</v>
+      </c>
+      <c r="H196" s="5">
+        <v>1619</v>
       </c>
       <c r="I196" s="4">
         <v>701</v>
@@ -8753,8 +8769,8 @@
       <c r="L196" s="4">
         <v>5</v>
       </c>
-      <c r="M196" s="5">
-        <v>4.6260000000000003</v>
+      <c r="M196" s="6">
+        <v>4626</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -8774,8 +8790,8 @@
       <c r="F197" s="4">
         <v>294</v>
       </c>
-      <c r="G197" s="4">
-        <v>1.476</v>
+      <c r="G197" s="5">
+        <v>1476</v>
       </c>
       <c r="H197" s="4">
         <v>725</v>
@@ -8792,8 +8808,8 @@
       <c r="L197" s="4">
         <v>5</v>
       </c>
-      <c r="M197" s="5">
-        <v>4.4749999999999996</v>
+      <c r="M197" s="6">
+        <v>4475</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -8818,8 +8834,8 @@
       <c r="G198" s="4">
         <v>960</v>
       </c>
-      <c r="H198" s="4">
-        <v>1.2629999999999999</v>
+      <c r="H198" s="5">
+        <v>1263</v>
       </c>
       <c r="I198" s="4">
         <v>439</v>
@@ -8833,8 +8849,8 @@
       <c r="L198" s="4">
         <v>3</v>
       </c>
-      <c r="M198" s="5">
-        <v>3.6840000000000002</v>
+      <c r="M198" s="6">
+        <v>3684</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -8854,8 +8870,8 @@
       <c r="F199" s="4">
         <v>248</v>
       </c>
-      <c r="G199" s="4">
-        <v>1.0940000000000001</v>
+      <c r="G199" s="5">
+        <v>1094</v>
       </c>
       <c r="H199" s="4">
         <v>535</v>
@@ -8872,8 +8888,8 @@
       <c r="L199" s="4">
         <v>4</v>
       </c>
-      <c r="M199" s="5">
-        <v>3.581</v>
+      <c r="M199" s="6">
+        <v>3581</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -8913,8 +8929,8 @@
       <c r="L200" s="4">
         <v>9</v>
       </c>
-      <c r="M200" s="5">
-        <v>3.0219999999999998</v>
+      <c r="M200" s="6">
+        <v>3022</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -8952,8 +8968,8 @@
       <c r="L201" s="4">
         <v>4</v>
       </c>
-      <c r="M201" s="5">
-        <v>2.76</v>
+      <c r="M201" s="6">
+        <v>2760</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -8993,8 +9009,8 @@
       <c r="L202" s="4">
         <v>6</v>
       </c>
-      <c r="M202" s="5">
-        <v>2.6160000000000001</v>
+      <c r="M202" s="6">
+        <v>2616</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -9032,8 +9048,8 @@
       <c r="L203" s="4">
         <v>6</v>
       </c>
-      <c r="M203" s="5">
-        <v>2.4089999999999998</v>
+      <c r="M203" s="6">
+        <v>2409</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -9073,8 +9089,8 @@
       <c r="L204" s="4">
         <v>3</v>
       </c>
-      <c r="M204" s="5">
-        <v>1.927</v>
+      <c r="M204" s="6">
+        <v>1927</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -9112,8 +9128,8 @@
       <c r="L205" s="4">
         <v>1</v>
       </c>
-      <c r="M205" s="5">
-        <v>1.853</v>
+      <c r="M205" s="6">
+        <v>1853</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -9153,8 +9169,8 @@
       <c r="L206" s="4">
         <v>3</v>
       </c>
-      <c r="M206" s="5">
-        <v>1.484</v>
+      <c r="M206" s="6">
+        <v>1484</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
@@ -9192,8 +9208,8 @@
       <c r="L207" s="4">
         <v>3</v>
       </c>
-      <c r="M207" s="5">
-        <v>1.4570000000000001</v>
+      <c r="M207" s="6">
+        <v>1457</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
@@ -9233,7 +9249,7 @@
       <c r="L208" s="4">
         <v>2</v>
       </c>
-      <c r="M208" s="5">
+      <c r="M208" s="8">
         <v>878</v>
       </c>
     </row>
@@ -9272,8 +9288,8 @@
       <c r="L209" s="4">
         <v>3</v>
       </c>
-      <c r="M209" s="5">
-        <v>1.165</v>
+      <c r="M209" s="6">
+        <v>1165</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
@@ -9313,8 +9329,8 @@
       <c r="L210" s="4">
         <v>3</v>
       </c>
-      <c r="M210" s="5">
-        <v>1.194</v>
+      <c r="M210" s="6">
+        <v>1194</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -9322,8 +9338,8 @@
       <c r="B211" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C211" s="4">
-        <v>1.474</v>
+      <c r="C211" s="5">
+        <v>1474</v>
       </c>
       <c r="D211" s="4">
         <v>304</v>
@@ -9352,54 +9368,54 @@
       <c r="L211" s="4">
         <v>15</v>
       </c>
-      <c r="M211" s="5">
-        <v>1.94</v>
+      <c r="M211" s="6">
+        <v>1940</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="5">
-        <v>6.3979999999999997</v>
-      </c>
-      <c r="D212" s="5">
-        <v>5.601</v>
-      </c>
-      <c r="E212" s="5">
-        <v>10.185</v>
-      </c>
-      <c r="F212" s="5">
-        <v>5.7910000000000004</v>
-      </c>
-      <c r="G212" s="5">
-        <v>22.616</v>
-      </c>
-      <c r="H212" s="5">
-        <v>24.404</v>
-      </c>
-      <c r="I212" s="5">
-        <v>11.641999999999999</v>
-      </c>
-      <c r="J212" s="5">
-        <v>1.093</v>
-      </c>
-      <c r="K212" s="5">
+      <c r="B212" s="7"/>
+      <c r="C212" s="6">
+        <v>6398</v>
+      </c>
+      <c r="D212" s="6">
+        <v>5601</v>
+      </c>
+      <c r="E212" s="6">
+        <v>10185</v>
+      </c>
+      <c r="F212" s="6">
+        <v>5791</v>
+      </c>
+      <c r="G212" s="6">
+        <v>22616</v>
+      </c>
+      <c r="H212" s="6">
+        <v>24404</v>
+      </c>
+      <c r="I212" s="6">
+        <v>11642</v>
+      </c>
+      <c r="J212" s="6">
+        <v>1093</v>
+      </c>
+      <c r="K212" s="8">
         <v>36</v>
       </c>
-      <c r="L212" s="5">
+      <c r="L212" s="8">
         <v>171</v>
       </c>
-      <c r="M212" s="5">
-        <v>87.936999999999998</v>
+      <c r="M212" s="6">
+        <v>87937</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B213" s="8"/>
+      <c r="B213" s="11"/>
       <c r="C213" s="2" t="s">
         <v>2</v>
       </c>
@@ -9453,11 +9469,11 @@
       <c r="F214" s="4">
         <v>2</v>
       </c>
-      <c r="G214" s="4">
-        <v>1.151</v>
-      </c>
-      <c r="H214" s="4">
-        <v>1.135</v>
+      <c r="G214" s="5">
+        <v>1151</v>
+      </c>
+      <c r="H214" s="5">
+        <v>1135</v>
       </c>
       <c r="I214" s="4">
         <v>125</v>
@@ -9471,8 +9487,8 @@
       <c r="L214" s="4">
         <v>34</v>
       </c>
-      <c r="M214" s="5">
-        <v>2.548</v>
+      <c r="M214" s="6">
+        <v>2548</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -9492,8 +9508,8 @@
       <c r="F215" s="4">
         <v>2</v>
       </c>
-      <c r="G215" s="4">
-        <v>1.19</v>
+      <c r="G215" s="5">
+        <v>1190</v>
       </c>
       <c r="H215" s="4">
         <v>848</v>
@@ -9510,8 +9526,8 @@
       <c r="L215" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M215" s="5">
-        <v>2.3159999999999998</v>
+      <c r="M215" s="6">
+        <v>2316</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -9551,8 +9567,8 @@
       <c r="L216" s="4">
         <v>4</v>
       </c>
-      <c r="M216" s="5">
-        <v>1.714</v>
+      <c r="M216" s="6">
+        <v>1714</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -9590,8 +9606,8 @@
       <c r="L217" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M217" s="5">
-        <v>1.3740000000000001</v>
+      <c r="M217" s="6">
+        <v>1374</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -9631,8 +9647,8 @@
       <c r="L218" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M218" s="5">
-        <v>1.2849999999999999</v>
+      <c r="M218" s="6">
+        <v>1285</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -9670,8 +9686,8 @@
       <c r="L219" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M219" s="5">
-        <v>1.0189999999999999</v>
+      <c r="M219" s="6">
+        <v>1019</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -9711,7 +9727,7 @@
       <c r="L220" s="4">
         <v>1</v>
       </c>
-      <c r="M220" s="5">
+      <c r="M220" s="8">
         <v>931</v>
       </c>
     </row>
@@ -9750,7 +9766,7 @@
       <c r="L221" s="4">
         <v>1</v>
       </c>
-      <c r="M221" s="5">
+      <c r="M221" s="8">
         <v>808</v>
       </c>
     </row>
@@ -9791,7 +9807,7 @@
       <c r="L222" s="4">
         <v>1</v>
       </c>
-      <c r="M222" s="5">
+      <c r="M222" s="8">
         <v>803</v>
       </c>
     </row>
@@ -9830,7 +9846,7 @@
       <c r="L223" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M223" s="5">
+      <c r="M223" s="8">
         <v>816</v>
       </c>
     </row>
@@ -9871,7 +9887,7 @@
       <c r="L224" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M224" s="5">
+      <c r="M224" s="8">
         <v>652</v>
       </c>
     </row>
@@ -9910,7 +9926,7 @@
       <c r="L225" s="4">
         <v>1</v>
       </c>
-      <c r="M225" s="5">
+      <c r="M225" s="8">
         <v>635</v>
       </c>
     </row>
@@ -9951,7 +9967,7 @@
       <c r="L226" s="4">
         <v>3</v>
       </c>
-      <c r="M226" s="5">
+      <c r="M226" s="8">
         <v>613</v>
       </c>
     </row>
@@ -9990,7 +10006,7 @@
       <c r="L227" s="4">
         <v>2</v>
       </c>
-      <c r="M227" s="5">
+      <c r="M227" s="8">
         <v>592</v>
       </c>
     </row>
@@ -10031,7 +10047,7 @@
       <c r="L228" s="4">
         <v>2</v>
       </c>
-      <c r="M228" s="5">
+      <c r="M228" s="8">
         <v>490</v>
       </c>
     </row>
@@ -10070,7 +10086,7 @@
       <c r="L229" s="4">
         <v>2</v>
       </c>
-      <c r="M229" s="5">
+      <c r="M229" s="8">
         <v>501</v>
       </c>
     </row>
@@ -10111,7 +10127,7 @@
       <c r="L230" s="4">
         <v>2</v>
       </c>
-      <c r="M230" s="5">
+      <c r="M230" s="8">
         <v>395</v>
       </c>
     </row>
@@ -10150,7 +10166,7 @@
       <c r="L231" s="4">
         <v>3</v>
       </c>
-      <c r="M231" s="5">
+      <c r="M231" s="8">
         <v>381</v>
       </c>
     </row>
@@ -10191,7 +10207,7 @@
       <c r="L232" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M232" s="5">
+      <c r="M232" s="8">
         <v>352</v>
       </c>
     </row>
@@ -10230,7 +10246,7 @@
       <c r="L233" s="4">
         <v>3</v>
       </c>
-      <c r="M233" s="5">
+      <c r="M233" s="8">
         <v>368</v>
       </c>
     </row>
@@ -10271,7 +10287,7 @@
       <c r="L234" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M234" s="5">
+      <c r="M234" s="8">
         <v>255</v>
       </c>
     </row>
@@ -10310,7 +10326,7 @@
       <c r="L235" s="4">
         <v>1</v>
       </c>
-      <c r="M235" s="5">
+      <c r="M235" s="8">
         <v>364</v>
       </c>
     </row>
@@ -10351,7 +10367,7 @@
       <c r="L236" s="4">
         <v>2</v>
       </c>
-      <c r="M236" s="5">
+      <c r="M236" s="8">
         <v>375</v>
       </c>
     </row>
@@ -10390,7 +10406,7 @@
       <c r="L237" s="4">
         <v>5</v>
       </c>
-      <c r="M237" s="5">
+      <c r="M237" s="8">
         <v>546</v>
       </c>
     </row>
@@ -10398,46 +10414,46 @@
       <c r="A238" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B238" s="6"/>
-      <c r="C238" s="5">
-        <v>2.444</v>
-      </c>
-      <c r="D238" s="5">
-        <v>2.2040000000000002</v>
-      </c>
-      <c r="E238" s="5">
-        <v>2.7360000000000002</v>
-      </c>
-      <c r="F238" s="5">
-        <v>1.6140000000000001</v>
-      </c>
-      <c r="G238" s="5">
-        <v>4.55</v>
-      </c>
-      <c r="H238" s="5">
-        <v>4.6760000000000002</v>
-      </c>
-      <c r="I238" s="5">
-        <v>1.6990000000000001</v>
-      </c>
-      <c r="J238" s="5">
+      <c r="B238" s="7"/>
+      <c r="C238" s="6">
+        <v>2444</v>
+      </c>
+      <c r="D238" s="6">
+        <v>2204</v>
+      </c>
+      <c r="E238" s="6">
+        <v>2736</v>
+      </c>
+      <c r="F238" s="6">
+        <v>1614</v>
+      </c>
+      <c r="G238" s="6">
+        <v>4550</v>
+      </c>
+      <c r="H238" s="6">
+        <v>4676</v>
+      </c>
+      <c r="I238" s="6">
+        <v>1699</v>
+      </c>
+      <c r="J238" s="8">
         <v>137</v>
       </c>
-      <c r="K238" s="5">
+      <c r="K238" s="8">
         <v>6</v>
       </c>
-      <c r="L238" s="5">
+      <c r="L238" s="8">
         <v>67</v>
       </c>
-      <c r="M238" s="5">
-        <v>20.132999999999999</v>
+      <c r="M238" s="6">
+        <v>20133</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A239" s="8" t="s">
+      <c r="A239" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B239" s="8"/>
+      <c r="B239" s="11"/>
       <c r="C239" s="2" t="s">
         <v>2</v>
       </c>
@@ -10509,8 +10525,8 @@
       <c r="L240" s="4">
         <v>10</v>
       </c>
-      <c r="M240" s="5">
-        <v>1.2729999999999999</v>
+      <c r="M240" s="6">
+        <v>1273</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -10548,8 +10564,8 @@
       <c r="L241" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M241" s="5">
-        <v>1.123</v>
+      <c r="M241" s="6">
+        <v>1123</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -10589,7 +10605,7 @@
       <c r="L242" s="4">
         <v>1</v>
       </c>
-      <c r="M242" s="5">
+      <c r="M242" s="8">
         <v>740</v>
       </c>
     </row>
@@ -10628,7 +10644,7 @@
       <c r="L243" s="4">
         <v>1</v>
       </c>
-      <c r="M243" s="5">
+      <c r="M243" s="8">
         <v>560</v>
       </c>
     </row>
@@ -10669,7 +10685,7 @@
       <c r="L244" s="4">
         <v>3</v>
       </c>
-      <c r="M244" s="5">
+      <c r="M244" s="8">
         <v>588</v>
       </c>
     </row>
@@ -10708,7 +10724,7 @@
       <c r="L245" s="4">
         <v>1</v>
       </c>
-      <c r="M245" s="5">
+      <c r="M245" s="8">
         <v>514</v>
       </c>
     </row>
@@ -10749,7 +10765,7 @@
       <c r="L246" s="4">
         <v>1</v>
       </c>
-      <c r="M246" s="5">
+      <c r="M246" s="8">
         <v>440</v>
       </c>
     </row>
@@ -10788,7 +10804,7 @@
       <c r="L247" s="4">
         <v>1</v>
       </c>
-      <c r="M247" s="5">
+      <c r="M247" s="8">
         <v>431</v>
       </c>
     </row>
@@ -10829,7 +10845,7 @@
       <c r="L248" s="4">
         <v>2</v>
       </c>
-      <c r="M248" s="5">
+      <c r="M248" s="8">
         <v>419</v>
       </c>
     </row>
@@ -10868,7 +10884,7 @@
       <c r="L249" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M249" s="5">
+      <c r="M249" s="8">
         <v>405</v>
       </c>
     </row>
@@ -10909,7 +10925,7 @@
       <c r="L250" s="4">
         <v>2</v>
       </c>
-      <c r="M250" s="5">
+      <c r="M250" s="8">
         <v>320</v>
       </c>
     </row>
@@ -10948,7 +10964,7 @@
       <c r="L251" s="4">
         <v>2</v>
       </c>
-      <c r="M251" s="5">
+      <c r="M251" s="8">
         <v>335</v>
       </c>
     </row>
@@ -10989,7 +11005,7 @@
       <c r="L252" s="4">
         <v>5</v>
       </c>
-      <c r="M252" s="5">
+      <c r="M252" s="8">
         <v>299</v>
       </c>
     </row>
@@ -11028,7 +11044,7 @@
       <c r="L253" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M253" s="5">
+      <c r="M253" s="8">
         <v>305</v>
       </c>
     </row>
@@ -11069,7 +11085,7 @@
       <c r="L254" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M254" s="5">
+      <c r="M254" s="8">
         <v>272</v>
       </c>
     </row>
@@ -11108,7 +11124,7 @@
       <c r="L255" s="4">
         <v>2</v>
       </c>
-      <c r="M255" s="5">
+      <c r="M255" s="8">
         <v>311</v>
       </c>
     </row>
@@ -11149,7 +11165,7 @@
       <c r="L256" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M256" s="5">
+      <c r="M256" s="8">
         <v>203</v>
       </c>
     </row>
@@ -11188,7 +11204,7 @@
       <c r="L257" s="4">
         <v>1</v>
       </c>
-      <c r="M257" s="5">
+      <c r="M257" s="8">
         <v>228</v>
       </c>
     </row>
@@ -11229,7 +11245,7 @@
       <c r="L258" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M258" s="5">
+      <c r="M258" s="8">
         <v>227</v>
       </c>
     </row>
@@ -11268,7 +11284,7 @@
       <c r="L259" s="4">
         <v>1</v>
       </c>
-      <c r="M259" s="5">
+      <c r="M259" s="8">
         <v>198</v>
       </c>
     </row>
@@ -11309,7 +11325,7 @@
       <c r="L260" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M260" s="5">
+      <c r="M260" s="8">
         <v>140</v>
       </c>
     </row>
@@ -11348,7 +11364,7 @@
       <c r="L261" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M261" s="5">
+      <c r="M261" s="8">
         <v>212</v>
       </c>
     </row>
@@ -11389,7 +11405,7 @@
       <c r="L262" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M262" s="5">
+      <c r="M262" s="8">
         <v>170</v>
       </c>
     </row>
@@ -11428,7 +11444,7 @@
       <c r="L263" s="4">
         <v>2</v>
       </c>
-      <c r="M263" s="5">
+      <c r="M263" s="8">
         <v>320</v>
       </c>
     </row>
@@ -11436,46 +11452,46 @@
       <c r="A264" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B264" s="6"/>
-      <c r="C264" s="5">
-        <v>1.171</v>
-      </c>
-      <c r="D264" s="5">
+      <c r="B264" s="7"/>
+      <c r="C264" s="6">
+        <v>1171</v>
+      </c>
+      <c r="D264" s="8">
         <v>779</v>
       </c>
-      <c r="E264" s="5">
-        <v>1.2549999999999999</v>
-      </c>
-      <c r="F264" s="5">
+      <c r="E264" s="6">
+        <v>1255</v>
+      </c>
+      <c r="F264" s="8">
         <v>768</v>
       </c>
-      <c r="G264" s="5">
-        <v>3.31</v>
-      </c>
-      <c r="H264" s="5">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="I264" s="5">
+      <c r="G264" s="6">
+        <v>3310</v>
+      </c>
+      <c r="H264" s="6">
+        <v>2010</v>
+      </c>
+      <c r="I264" s="8">
         <v>672</v>
       </c>
-      <c r="J264" s="5">
+      <c r="J264" s="8">
         <v>27</v>
       </c>
-      <c r="K264" s="5">
+      <c r="K264" s="8">
         <v>6</v>
       </c>
-      <c r="L264" s="5">
+      <c r="L264" s="8">
         <v>35</v>
       </c>
-      <c r="M264" s="5">
-        <v>10.032999999999999</v>
+      <c r="M264" s="6">
+        <v>10033</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A265" s="8" t="s">
+      <c r="A265" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B265" s="8"/>
+      <c r="B265" s="11"/>
       <c r="C265" s="2" t="s">
         <v>2</v>
       </c>
@@ -11529,14 +11545,14 @@
       <c r="F266" s="4">
         <v>11</v>
       </c>
-      <c r="G266" s="4">
-        <v>6.3920000000000003</v>
-      </c>
-      <c r="H266" s="4">
-        <v>14.557</v>
-      </c>
-      <c r="I266" s="4">
-        <v>2.2000000000000002</v>
+      <c r="G266" s="5">
+        <v>6392</v>
+      </c>
+      <c r="H266" s="5">
+        <v>14557</v>
+      </c>
+      <c r="I266" s="5">
+        <v>2200</v>
       </c>
       <c r="J266" s="4">
         <v>31</v>
@@ -11547,8 +11563,8 @@
       <c r="L266" s="4">
         <v>141</v>
       </c>
-      <c r="M266" s="5">
-        <v>23.588000000000001</v>
+      <c r="M266" s="6">
+        <v>23588</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
@@ -11568,14 +11584,14 @@
       <c r="F267" s="4">
         <v>8</v>
       </c>
-      <c r="G267" s="4">
-        <v>5.7690000000000001</v>
-      </c>
-      <c r="H267" s="4">
-        <v>15.012</v>
-      </c>
-      <c r="I267" s="4">
-        <v>3.129</v>
+      <c r="G267" s="5">
+        <v>5769</v>
+      </c>
+      <c r="H267" s="5">
+        <v>15012</v>
+      </c>
+      <c r="I267" s="5">
+        <v>3129</v>
       </c>
       <c r="J267" s="4">
         <v>50</v>
@@ -11586,8 +11602,8 @@
       <c r="L267" s="4">
         <v>36</v>
       </c>
-      <c r="M267" s="5">
-        <v>24.547000000000001</v>
+      <c r="M267" s="6">
+        <v>24547</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
@@ -11609,14 +11625,14 @@
       <c r="F268" s="4">
         <v>216</v>
       </c>
-      <c r="G268" s="4">
-        <v>3.9209999999999998</v>
-      </c>
-      <c r="H268" s="4">
-        <v>5.1859999999999999</v>
-      </c>
-      <c r="I268" s="4">
-        <v>5.8440000000000003</v>
+      <c r="G268" s="5">
+        <v>3921</v>
+      </c>
+      <c r="H268" s="5">
+        <v>5186</v>
+      </c>
+      <c r="I268" s="5">
+        <v>5844</v>
       </c>
       <c r="J268" s="4">
         <v>572</v>
@@ -11627,8 +11643,8 @@
       <c r="L268" s="4">
         <v>47</v>
       </c>
-      <c r="M268" s="5">
-        <v>16.218</v>
+      <c r="M268" s="6">
+        <v>16218</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
@@ -11648,14 +11664,14 @@
       <c r="F269" s="4">
         <v>431</v>
       </c>
-      <c r="G269" s="4">
-        <v>3.5640000000000001</v>
-      </c>
-      <c r="H269" s="4">
-        <v>4.0739999999999998</v>
-      </c>
-      <c r="I269" s="4">
-        <v>7.5540000000000003</v>
+      <c r="G269" s="5">
+        <v>3564</v>
+      </c>
+      <c r="H269" s="5">
+        <v>4074</v>
+      </c>
+      <c r="I269" s="5">
+        <v>7554</v>
       </c>
       <c r="J269" s="4">
         <v>678</v>
@@ -11666,8 +11682,8 @@
       <c r="L269" s="4">
         <v>38</v>
       </c>
-      <c r="M269" s="5">
-        <v>18.257999999999999</v>
+      <c r="M269" s="6">
+        <v>18258</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
@@ -11686,20 +11702,20 @@
       <c r="E270" s="4">
         <v>251</v>
       </c>
-      <c r="F270" s="4">
-        <v>1.881</v>
-      </c>
-      <c r="G270" s="4">
-        <v>1.9990000000000001</v>
-      </c>
-      <c r="H270" s="4">
-        <v>4.617</v>
-      </c>
-      <c r="I270" s="4">
-        <v>7.0810000000000004</v>
-      </c>
-      <c r="J270" s="4">
-        <v>1.3420000000000001</v>
+      <c r="F270" s="5">
+        <v>1881</v>
+      </c>
+      <c r="G270" s="5">
+        <v>1999</v>
+      </c>
+      <c r="H270" s="5">
+        <v>4617</v>
+      </c>
+      <c r="I270" s="5">
+        <v>7081</v>
+      </c>
+      <c r="J270" s="5">
+        <v>1342</v>
       </c>
       <c r="K270" s="4">
         <v>34</v>
@@ -11707,8 +11723,8 @@
       <c r="L270" s="4">
         <v>35</v>
       </c>
-      <c r="M270" s="5">
-        <v>17.605</v>
+      <c r="M270" s="6">
+        <v>17605</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
@@ -11719,26 +11735,26 @@
       <c r="C271" s="4">
         <v>544</v>
       </c>
-      <c r="D271" s="4">
-        <v>1.8049999999999999</v>
+      <c r="D271" s="5">
+        <v>1805</v>
       </c>
       <c r="E271" s="4">
         <v>904</v>
       </c>
-      <c r="F271" s="4">
-        <v>2.1909999999999998</v>
-      </c>
-      <c r="G271" s="4">
-        <v>1.5580000000000001</v>
-      </c>
-      <c r="H271" s="4">
-        <v>3.7050000000000001</v>
-      </c>
-      <c r="I271" s="4">
-        <v>7.4889999999999999</v>
-      </c>
-      <c r="J271" s="4">
-        <v>1.073</v>
+      <c r="F271" s="5">
+        <v>2191</v>
+      </c>
+      <c r="G271" s="5">
+        <v>1558</v>
+      </c>
+      <c r="H271" s="5">
+        <v>3705</v>
+      </c>
+      <c r="I271" s="5">
+        <v>7489</v>
+      </c>
+      <c r="J271" s="5">
+        <v>1073</v>
       </c>
       <c r="K271" s="4">
         <v>19</v>
@@ -11746,8 +11762,8 @@
       <c r="L271" s="4">
         <v>70</v>
       </c>
-      <c r="M271" s="5">
-        <v>19.358000000000001</v>
+      <c r="M271" s="6">
+        <v>19358</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
@@ -11766,20 +11782,20 @@
       <c r="E272" s="4">
         <v>855</v>
       </c>
-      <c r="F272" s="4">
-        <v>1.86</v>
-      </c>
-      <c r="G272" s="4">
-        <v>1.218</v>
-      </c>
-      <c r="H272" s="4">
-        <v>4.42</v>
-      </c>
-      <c r="I272" s="4">
-        <v>5.6820000000000004</v>
-      </c>
-      <c r="J272" s="4">
-        <v>1.488</v>
+      <c r="F272" s="5">
+        <v>1860</v>
+      </c>
+      <c r="G272" s="5">
+        <v>1218</v>
+      </c>
+      <c r="H272" s="5">
+        <v>4420</v>
+      </c>
+      <c r="I272" s="5">
+        <v>5682</v>
+      </c>
+      <c r="J272" s="5">
+        <v>1488</v>
       </c>
       <c r="K272" s="4">
         <v>97</v>
@@ -11787,8 +11803,8 @@
       <c r="L272" s="4">
         <v>49</v>
       </c>
-      <c r="M272" s="5">
-        <v>16.109000000000002</v>
+      <c r="M272" s="6">
+        <v>16109</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
@@ -11799,23 +11815,23 @@
       <c r="C273" s="4">
         <v>642</v>
       </c>
-      <c r="D273" s="4">
-        <v>1.4970000000000001</v>
-      </c>
-      <c r="E273" s="4">
-        <v>2.3210000000000002</v>
-      </c>
-      <c r="F273" s="4">
-        <v>1.4950000000000001</v>
-      </c>
-      <c r="G273" s="4">
-        <v>1.2629999999999999</v>
-      </c>
-      <c r="H273" s="4">
-        <v>3.6970000000000001</v>
-      </c>
-      <c r="I273" s="4">
-        <v>5.1820000000000004</v>
+      <c r="D273" s="5">
+        <v>1497</v>
+      </c>
+      <c r="E273" s="5">
+        <v>2321</v>
+      </c>
+      <c r="F273" s="5">
+        <v>1495</v>
+      </c>
+      <c r="G273" s="5">
+        <v>1263</v>
+      </c>
+      <c r="H273" s="5">
+        <v>3697</v>
+      </c>
+      <c r="I273" s="5">
+        <v>5182</v>
       </c>
       <c r="J273" s="4">
         <v>853</v>
@@ -11826,8 +11842,8 @@
       <c r="L273" s="4">
         <v>48</v>
       </c>
-      <c r="M273" s="5">
-        <v>17.068999999999999</v>
+      <c r="M273" s="6">
+        <v>17069</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
@@ -11843,23 +11859,23 @@
       <c r="D274" s="4">
         <v>222</v>
       </c>
-      <c r="E274" s="4">
-        <v>1.5720000000000001</v>
-      </c>
-      <c r="F274" s="4">
-        <v>1.667</v>
-      </c>
-      <c r="G274" s="4">
-        <v>1.992</v>
-      </c>
-      <c r="H274" s="4">
-        <v>4.3209999999999997</v>
-      </c>
-      <c r="I274" s="4">
-        <v>4.2649999999999997</v>
-      </c>
-      <c r="J274" s="4">
-        <v>1.4019999999999999</v>
+      <c r="E274" s="5">
+        <v>1572</v>
+      </c>
+      <c r="F274" s="5">
+        <v>1667</v>
+      </c>
+      <c r="G274" s="5">
+        <v>1992</v>
+      </c>
+      <c r="H274" s="5">
+        <v>4321</v>
+      </c>
+      <c r="I274" s="5">
+        <v>4265</v>
+      </c>
+      <c r="J274" s="5">
+        <v>1402</v>
       </c>
       <c r="K274" s="4">
         <v>172</v>
@@ -11867,8 +11883,8 @@
       <c r="L274" s="4">
         <v>45</v>
       </c>
-      <c r="M274" s="5">
-        <v>15.736000000000001</v>
+      <c r="M274" s="6">
+        <v>15736</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
@@ -11879,23 +11895,23 @@
       <c r="C275" s="4">
         <v>668</v>
       </c>
-      <c r="D275" s="4">
-        <v>1.474</v>
-      </c>
-      <c r="E275" s="4">
-        <v>3.25</v>
-      </c>
-      <c r="F275" s="4">
-        <v>1.0269999999999999</v>
-      </c>
-      <c r="G275" s="4">
-        <v>1.6619999999999999</v>
-      </c>
-      <c r="H275" s="4">
-        <v>3.4390000000000001</v>
-      </c>
-      <c r="I275" s="4">
-        <v>3.7730000000000001</v>
+      <c r="D275" s="5">
+        <v>1474</v>
+      </c>
+      <c r="E275" s="5">
+        <v>3250</v>
+      </c>
+      <c r="F275" s="5">
+        <v>1027</v>
+      </c>
+      <c r="G275" s="5">
+        <v>1662</v>
+      </c>
+      <c r="H275" s="5">
+        <v>3439</v>
+      </c>
+      <c r="I275" s="5">
+        <v>3773</v>
       </c>
       <c r="J275" s="4">
         <v>664</v>
@@ -11906,8 +11922,8 @@
       <c r="L275" s="4">
         <v>35</v>
       </c>
-      <c r="M275" s="5">
-        <v>16.077000000000002</v>
+      <c r="M275" s="6">
+        <v>16077</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
@@ -11923,20 +11939,20 @@
       <c r="D276" s="4">
         <v>166</v>
       </c>
-      <c r="E276" s="4">
-        <v>1.379</v>
-      </c>
-      <c r="F276" s="4">
-        <v>1.288</v>
-      </c>
-      <c r="G276" s="4">
-        <v>1.5660000000000001</v>
-      </c>
-      <c r="H276" s="4">
-        <v>3.5169999999999999</v>
-      </c>
-      <c r="I276" s="4">
-        <v>3.3260000000000001</v>
+      <c r="E276" s="5">
+        <v>1379</v>
+      </c>
+      <c r="F276" s="5">
+        <v>1288</v>
+      </c>
+      <c r="G276" s="5">
+        <v>1566</v>
+      </c>
+      <c r="H276" s="5">
+        <v>3517</v>
+      </c>
+      <c r="I276" s="5">
+        <v>3326</v>
       </c>
       <c r="J276" s="4">
         <v>689</v>
@@ -11947,8 +11963,8 @@
       <c r="L276" s="4">
         <v>47</v>
       </c>
-      <c r="M276" s="5">
-        <v>12.23</v>
+      <c r="M276" s="6">
+        <v>12230</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
@@ -11959,23 +11975,23 @@
       <c r="C277" s="4">
         <v>619</v>
       </c>
-      <c r="D277" s="4">
-        <v>1.3109999999999999</v>
-      </c>
-      <c r="E277" s="4">
-        <v>2.7509999999999999</v>
+      <c r="D277" s="5">
+        <v>1311</v>
+      </c>
+      <c r="E277" s="5">
+        <v>2751</v>
       </c>
       <c r="F277" s="4">
         <v>853</v>
       </c>
-      <c r="G277" s="4">
-        <v>1.371</v>
-      </c>
-      <c r="H277" s="4">
-        <v>2.4359999999999999</v>
-      </c>
-      <c r="I277" s="4">
-        <v>2.0659999999999998</v>
+      <c r="G277" s="5">
+        <v>1371</v>
+      </c>
+      <c r="H277" s="5">
+        <v>2436</v>
+      </c>
+      <c r="I277" s="5">
+        <v>2066</v>
       </c>
       <c r="J277" s="4">
         <v>265</v>
@@ -11986,8 +12002,8 @@
       <c r="L277" s="4">
         <v>37</v>
       </c>
-      <c r="M277" s="5">
-        <v>11.755000000000001</v>
+      <c r="M277" s="6">
+        <v>11755</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
@@ -12003,20 +12019,20 @@
       <c r="D278" s="4">
         <v>133</v>
       </c>
-      <c r="E278" s="4">
-        <v>1.254</v>
-      </c>
-      <c r="F278" s="4">
-        <v>1.232</v>
-      </c>
-      <c r="G278" s="4">
-        <v>1.4750000000000001</v>
-      </c>
-      <c r="H278" s="4">
-        <v>2.569</v>
-      </c>
-      <c r="I278" s="4">
-        <v>2.2240000000000002</v>
+      <c r="E278" s="5">
+        <v>1254</v>
+      </c>
+      <c r="F278" s="5">
+        <v>1232</v>
+      </c>
+      <c r="G278" s="5">
+        <v>1475</v>
+      </c>
+      <c r="H278" s="5">
+        <v>2569</v>
+      </c>
+      <c r="I278" s="5">
+        <v>2224</v>
       </c>
       <c r="J278" s="4">
         <v>351</v>
@@ -12027,8 +12043,8 @@
       <c r="L278" s="4">
         <v>35</v>
       </c>
-      <c r="M278" s="5">
-        <v>9.4179999999999993</v>
+      <c r="M278" s="6">
+        <v>9418</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
@@ -12039,20 +12055,20 @@
       <c r="C279" s="4">
         <v>794</v>
       </c>
-      <c r="D279" s="4">
-        <v>1.4239999999999999</v>
-      </c>
-      <c r="E279" s="4">
-        <v>2.3199999999999998</v>
+      <c r="D279" s="5">
+        <v>1424</v>
+      </c>
+      <c r="E279" s="5">
+        <v>2320</v>
       </c>
       <c r="F279" s="4">
         <v>762</v>
       </c>
-      <c r="G279" s="4">
-        <v>1.04</v>
-      </c>
-      <c r="H279" s="4">
-        <v>1.7150000000000001</v>
+      <c r="G279" s="5">
+        <v>1040</v>
+      </c>
+      <c r="H279" s="5">
+        <v>1715</v>
       </c>
       <c r="I279" s="4">
         <v>926</v>
@@ -12066,8 +12082,8 @@
       <c r="L279" s="4">
         <v>27</v>
       </c>
-      <c r="M279" s="5">
-        <v>9.1549999999999994</v>
+      <c r="M279" s="6">
+        <v>9155</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
@@ -12083,20 +12099,20 @@
       <c r="D280" s="4">
         <v>161</v>
       </c>
-      <c r="E280" s="4">
-        <v>1.3080000000000001</v>
+      <c r="E280" s="5">
+        <v>1308</v>
       </c>
       <c r="F280" s="4">
         <v>969</v>
       </c>
-      <c r="G280" s="4">
-        <v>1.2150000000000001</v>
-      </c>
-      <c r="H280" s="4">
-        <v>2.1960000000000002</v>
-      </c>
-      <c r="I280" s="4">
-        <v>1.329</v>
+      <c r="G280" s="5">
+        <v>1215</v>
+      </c>
+      <c r="H280" s="5">
+        <v>2196</v>
+      </c>
+      <c r="I280" s="5">
+        <v>1329</v>
       </c>
       <c r="J280" s="4">
         <v>162</v>
@@ -12107,8 +12123,8 @@
       <c r="L280" s="4">
         <v>21</v>
       </c>
-      <c r="M280" s="5">
-        <v>7.4640000000000004</v>
+      <c r="M280" s="6">
+        <v>7464</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
@@ -12116,14 +12132,14 @@
       <c r="B281" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C281" s="4">
-        <v>1.038</v>
-      </c>
-      <c r="D281" s="4">
-        <v>1.292</v>
-      </c>
-      <c r="E281" s="4">
-        <v>1.91</v>
+      <c r="C281" s="5">
+        <v>1038</v>
+      </c>
+      <c r="D281" s="5">
+        <v>1292</v>
+      </c>
+      <c r="E281" s="5">
+        <v>1910</v>
       </c>
       <c r="F281" s="4">
         <v>445</v>
@@ -12131,8 +12147,8 @@
       <c r="G281" s="4">
         <v>682</v>
       </c>
-      <c r="H281" s="4">
-        <v>1.1479999999999999</v>
+      <c r="H281" s="5">
+        <v>1148</v>
       </c>
       <c r="I281" s="4">
         <v>447</v>
@@ -12146,8 +12162,8 @@
       <c r="L281" s="4">
         <v>26</v>
       </c>
-      <c r="M281" s="5">
-        <v>7.03</v>
+      <c r="M281" s="6">
+        <v>7030</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
@@ -12163,8 +12179,8 @@
       <c r="D282" s="4">
         <v>164</v>
       </c>
-      <c r="E282" s="4">
-        <v>1.123</v>
+      <c r="E282" s="5">
+        <v>1123</v>
       </c>
       <c r="F282" s="4">
         <v>536</v>
@@ -12172,8 +12188,8 @@
       <c r="G282" s="4">
         <v>666</v>
       </c>
-      <c r="H282" s="4">
-        <v>1.68</v>
+      <c r="H282" s="5">
+        <v>1680</v>
       </c>
       <c r="I282" s="4">
         <v>837</v>
@@ -12187,8 +12203,8 @@
       <c r="L282" s="4">
         <v>18</v>
       </c>
-      <c r="M282" s="5">
-        <v>5.1870000000000003</v>
+      <c r="M282" s="6">
+        <v>5187</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
@@ -12196,14 +12212,14 @@
       <c r="B283" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C283" s="4">
-        <v>1.196</v>
-      </c>
-      <c r="D283" s="4">
-        <v>1.1579999999999999</v>
-      </c>
-      <c r="E283" s="4">
-        <v>1.595</v>
+      <c r="C283" s="5">
+        <v>1196</v>
+      </c>
+      <c r="D283" s="5">
+        <v>1158</v>
+      </c>
+      <c r="E283" s="5">
+        <v>1595</v>
       </c>
       <c r="F283" s="4">
         <v>265</v>
@@ -12226,8 +12242,8 @@
       <c r="L283" s="4">
         <v>19</v>
       </c>
-      <c r="M283" s="5">
-        <v>5.4379999999999997</v>
+      <c r="M283" s="6">
+        <v>5438</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
@@ -12243,8 +12259,8 @@
       <c r="D284" s="4">
         <v>237</v>
       </c>
-      <c r="E284" s="4">
-        <v>1.0649999999999999</v>
+      <c r="E284" s="5">
+        <v>1065</v>
       </c>
       <c r="F284" s="4">
         <v>261</v>
@@ -12267,8 +12283,8 @@
       <c r="L284" s="4">
         <v>17</v>
       </c>
-      <c r="M284" s="5">
-        <v>3.786</v>
+      <c r="M284" s="6">
+        <v>3786</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
@@ -12276,8 +12292,8 @@
       <c r="B285" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C285" s="4">
-        <v>1.244</v>
+      <c r="C285" s="5">
+        <v>1244</v>
       </c>
       <c r="D285" s="4">
         <v>854</v>
@@ -12306,8 +12322,8 @@
       <c r="L285" s="4">
         <v>28</v>
       </c>
-      <c r="M285" s="5">
-        <v>3.694</v>
+      <c r="M285" s="6">
+        <v>3694</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
@@ -12347,8 +12363,8 @@
       <c r="L286" s="4">
         <v>8</v>
       </c>
-      <c r="M286" s="5">
-        <v>2.3239999999999998</v>
+      <c r="M286" s="6">
+        <v>2324</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
@@ -12356,8 +12372,8 @@
       <c r="B287" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C287" s="4">
-        <v>1.2649999999999999</v>
+      <c r="C287" s="5">
+        <v>1265</v>
       </c>
       <c r="D287" s="4">
         <v>597</v>
@@ -12386,8 +12402,8 @@
       <c r="L287" s="4">
         <v>16</v>
       </c>
-      <c r="M287" s="5">
-        <v>2.74</v>
+      <c r="M287" s="6">
+        <v>2740</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
@@ -12427,8 +12443,8 @@
       <c r="L288" s="4">
         <v>20</v>
       </c>
-      <c r="M288" s="5">
-        <v>2.2240000000000002</v>
+      <c r="M288" s="6">
+        <v>2224</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
@@ -12436,8 +12452,8 @@
       <c r="B289" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C289" s="4">
-        <v>2.452</v>
+      <c r="C289" s="5">
+        <v>2452</v>
       </c>
       <c r="D289" s="4">
         <v>567</v>
@@ -12466,54 +12482,54 @@
       <c r="L289" s="4">
         <v>59</v>
       </c>
-      <c r="M289" s="5">
-        <v>3.556</v>
+      <c r="M289" s="6">
+        <v>3556</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B290" s="6"/>
-      <c r="C290" s="5">
-        <v>11.791</v>
-      </c>
-      <c r="D290" s="5">
-        <v>15.686</v>
-      </c>
-      <c r="E290" s="5">
-        <v>28.937999999999999</v>
-      </c>
-      <c r="F290" s="5">
-        <v>17.664000000000001</v>
-      </c>
-      <c r="G290" s="5">
-        <v>38.94</v>
-      </c>
-      <c r="H290" s="5">
-        <v>80.872</v>
-      </c>
-      <c r="I290" s="5">
-        <v>64.852999999999994</v>
-      </c>
-      <c r="J290" s="5">
-        <v>9.9269999999999996</v>
-      </c>
-      <c r="K290" s="5">
+      <c r="B290" s="7"/>
+      <c r="C290" s="6">
+        <v>11791</v>
+      </c>
+      <c r="D290" s="6">
+        <v>15686</v>
+      </c>
+      <c r="E290" s="6">
+        <v>28938</v>
+      </c>
+      <c r="F290" s="6">
+        <v>17664</v>
+      </c>
+      <c r="G290" s="6">
+        <v>38940</v>
+      </c>
+      <c r="H290" s="6">
+        <v>80872</v>
+      </c>
+      <c r="I290" s="6">
+        <v>64853</v>
+      </c>
+      <c r="J290" s="6">
+        <v>9927</v>
+      </c>
+      <c r="K290" s="8">
         <v>973</v>
       </c>
-      <c r="L290" s="5">
+      <c r="L290" s="8">
         <v>922</v>
       </c>
-      <c r="M290" s="5">
-        <v>270.56599999999997</v>
+      <c r="M290" s="6">
+        <v>270566</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A291" s="8" t="s">
+      <c r="A291" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B291" s="8"/>
+      <c r="B291" s="11"/>
       <c r="C291" s="2" t="s">
         <v>2</v>
       </c>
@@ -12579,14 +12595,14 @@
       <c r="J292" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K292" s="4" t="s">
-        <v>15</v>
+      <c r="K292" s="4">
+        <v>0</v>
       </c>
       <c r="L292" s="4">
         <v>12</v>
       </c>
-      <c r="M292" s="5">
-        <v>1.179</v>
+      <c r="M292" s="6">
+        <v>1179</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
@@ -12618,14 +12634,14 @@
       <c r="J293" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K293" s="4" t="s">
-        <v>15</v>
+      <c r="K293" s="4">
+        <v>0</v>
       </c>
       <c r="L293" s="4">
         <v>1</v>
       </c>
-      <c r="M293" s="5">
-        <v>1.1499999999999999</v>
+      <c r="M293" s="6">
+        <v>1150</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
@@ -12659,13 +12675,13 @@
       <c r="J294" s="4">
         <v>2</v>
       </c>
-      <c r="K294" s="4" t="s">
-        <v>15</v>
+      <c r="K294" s="4">
+        <v>0</v>
       </c>
       <c r="L294" s="4">
         <v>4</v>
       </c>
-      <c r="M294" s="5">
+      <c r="M294" s="8">
         <v>703</v>
       </c>
     </row>
@@ -12698,13 +12714,13 @@
       <c r="J295" s="4">
         <v>10</v>
       </c>
-      <c r="K295" s="4" t="s">
-        <v>15</v>
+      <c r="K295" s="4">
+        <v>0</v>
       </c>
       <c r="L295" s="4">
         <v>1</v>
       </c>
-      <c r="M295" s="5">
+      <c r="M295" s="8">
         <v>580</v>
       </c>
     </row>
@@ -12739,13 +12755,13 @@
       <c r="J296" s="4">
         <v>13</v>
       </c>
-      <c r="K296" s="4" t="s">
-        <v>15</v>
+      <c r="K296" s="4">
+        <v>0</v>
       </c>
       <c r="L296" s="4">
         <v>1</v>
       </c>
-      <c r="M296" s="5">
+      <c r="M296" s="8">
         <v>632</v>
       </c>
     </row>
@@ -12778,13 +12794,13 @@
       <c r="J297" s="4">
         <v>4</v>
       </c>
-      <c r="K297" s="4" t="s">
-        <v>15</v>
+      <c r="K297" s="4">
+        <v>0</v>
       </c>
       <c r="L297" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M297" s="5">
+      <c r="M297" s="8">
         <v>494</v>
       </c>
     </row>
@@ -12819,13 +12835,13 @@
       <c r="J298" s="4">
         <v>7</v>
       </c>
-      <c r="K298" s="4" t="s">
-        <v>15</v>
+      <c r="K298" s="4">
+        <v>0</v>
       </c>
       <c r="L298" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M298" s="5">
+      <c r="M298" s="8">
         <v>435</v>
       </c>
     </row>
@@ -12858,13 +12874,13 @@
       <c r="J299" s="4">
         <v>2</v>
       </c>
-      <c r="K299" s="4" t="s">
-        <v>15</v>
+      <c r="K299" s="4">
+        <v>0</v>
       </c>
       <c r="L299" s="4">
         <v>1</v>
       </c>
-      <c r="M299" s="5">
+      <c r="M299" s="8">
         <v>445</v>
       </c>
     </row>
@@ -12899,13 +12915,13 @@
       <c r="J300" s="4">
         <v>3</v>
       </c>
-      <c r="K300" s="4" t="s">
-        <v>15</v>
+      <c r="K300" s="4">
+        <v>0</v>
       </c>
       <c r="L300" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M300" s="5">
+      <c r="M300" s="8">
         <v>441</v>
       </c>
     </row>
@@ -12938,13 +12954,13 @@
       <c r="J301" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K301" s="4" t="s">
-        <v>15</v>
+      <c r="K301" s="4">
+        <v>0</v>
       </c>
       <c r="L301" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M301" s="5">
+      <c r="M301" s="8">
         <v>434</v>
       </c>
     </row>
@@ -12979,13 +12995,13 @@
       <c r="J302" s="4">
         <v>2</v>
       </c>
-      <c r="K302" s="4" t="s">
-        <v>15</v>
+      <c r="K302" s="4">
+        <v>0</v>
       </c>
       <c r="L302" s="4">
         <v>2</v>
       </c>
-      <c r="M302" s="5">
+      <c r="M302" s="8">
         <v>365</v>
       </c>
     </row>
@@ -13018,13 +13034,13 @@
       <c r="J303" s="4">
         <v>1</v>
       </c>
-      <c r="K303" s="4" t="s">
-        <v>15</v>
+      <c r="K303" s="4">
+        <v>0</v>
       </c>
       <c r="L303" s="4">
         <v>1</v>
       </c>
-      <c r="M303" s="5">
+      <c r="M303" s="8">
         <v>382</v>
       </c>
     </row>
@@ -13059,13 +13075,13 @@
       <c r="J304" s="4">
         <v>1</v>
       </c>
-      <c r="K304" s="4" t="s">
-        <v>15</v>
+      <c r="K304" s="4">
+        <v>0</v>
       </c>
       <c r="L304" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M304" s="5">
+      <c r="M304" s="8">
         <v>308</v>
       </c>
     </row>
@@ -13098,13 +13114,13 @@
       <c r="J305" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K305" s="4" t="s">
-        <v>15</v>
+      <c r="K305" s="4">
+        <v>0</v>
       </c>
       <c r="L305" s="4">
         <v>1</v>
       </c>
-      <c r="M305" s="5">
+      <c r="M305" s="8">
         <v>290</v>
       </c>
     </row>
@@ -13139,13 +13155,13 @@
       <c r="J306" s="4">
         <v>1</v>
       </c>
-      <c r="K306" s="4" t="s">
-        <v>15</v>
+      <c r="K306" s="4">
+        <v>0</v>
       </c>
       <c r="L306" s="4">
         <v>1</v>
       </c>
-      <c r="M306" s="5">
+      <c r="M306" s="8">
         <v>276</v>
       </c>
     </row>
@@ -13178,13 +13194,13 @@
       <c r="J307" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K307" s="4" t="s">
-        <v>15</v>
+      <c r="K307" s="4">
+        <v>0</v>
       </c>
       <c r="L307" s="4">
         <v>2</v>
       </c>
-      <c r="M307" s="5">
+      <c r="M307" s="8">
         <v>276</v>
       </c>
     </row>
@@ -13219,13 +13235,13 @@
       <c r="J308" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K308" s="4" t="s">
-        <v>15</v>
+      <c r="K308" s="4">
+        <v>0</v>
       </c>
       <c r="L308" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M308" s="5">
+      <c r="M308" s="8">
         <v>208</v>
       </c>
     </row>
@@ -13258,13 +13274,13 @@
       <c r="J309" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K309" s="4" t="s">
-        <v>15</v>
+      <c r="K309" s="4">
+        <v>0</v>
       </c>
       <c r="L309" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M309" s="5">
+      <c r="M309" s="8">
         <v>220</v>
       </c>
     </row>
@@ -13299,13 +13315,13 @@
       <c r="J310" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K310" s="4" t="s">
-        <v>15</v>
+      <c r="K310" s="4">
+        <v>0</v>
       </c>
       <c r="L310" s="4">
         <v>1</v>
       </c>
-      <c r="M310" s="5">
+      <c r="M310" s="8">
         <v>169</v>
       </c>
     </row>
@@ -13338,13 +13354,13 @@
       <c r="J311" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K311" s="4" t="s">
-        <v>15</v>
+      <c r="K311" s="4">
+        <v>0</v>
       </c>
       <c r="L311" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M311" s="5">
+      <c r="M311" s="8">
         <v>171</v>
       </c>
     </row>
@@ -13379,13 +13395,13 @@
       <c r="J312" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K312" s="4" t="s">
-        <v>15</v>
+      <c r="K312" s="4">
+        <v>0</v>
       </c>
       <c r="L312" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M312" s="5">
+      <c r="M312" s="8">
         <v>138</v>
       </c>
     </row>
@@ -13418,13 +13434,13 @@
       <c r="J313" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K313" s="4" t="s">
-        <v>15</v>
+      <c r="K313" s="4">
+        <v>0</v>
       </c>
       <c r="L313" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M313" s="5">
+      <c r="M313" s="8">
         <v>141</v>
       </c>
     </row>
@@ -13459,13 +13475,13 @@
       <c r="J314" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K314" s="4" t="s">
-        <v>15</v>
+      <c r="K314" s="4">
+        <v>0</v>
       </c>
       <c r="L314" s="4">
         <v>1</v>
       </c>
-      <c r="M314" s="5">
+      <c r="M314" s="8">
         <v>164</v>
       </c>
     </row>
@@ -13498,13 +13514,13 @@
       <c r="J315" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K315" s="4" t="s">
-        <v>15</v>
+      <c r="K315" s="4">
+        <v>0</v>
       </c>
       <c r="L315" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M315" s="5">
+      <c r="M315" s="8">
         <v>260</v>
       </c>
     </row>
@@ -13512,46 +13528,46 @@
       <c r="A316" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B316" s="6"/>
-      <c r="C316" s="5">
-        <v>1.1419999999999999</v>
-      </c>
-      <c r="D316" s="5">
+      <c r="B316" s="7"/>
+      <c r="C316" s="6">
+        <v>1142</v>
+      </c>
+      <c r="D316" s="8">
         <v>991</v>
       </c>
-      <c r="E316" s="5">
-        <v>1.417</v>
-      </c>
-      <c r="F316" s="5">
+      <c r="E316" s="6">
+        <v>1417</v>
+      </c>
+      <c r="F316" s="8">
         <v>767</v>
       </c>
-      <c r="G316" s="5">
-        <v>2.0720000000000001</v>
-      </c>
-      <c r="H316" s="5">
-        <v>2.5329999999999999</v>
-      </c>
-      <c r="I316" s="5">
+      <c r="G316" s="6">
+        <v>2072</v>
+      </c>
+      <c r="H316" s="6">
+        <v>2533</v>
+      </c>
+      <c r="I316" s="8">
         <v>864</v>
       </c>
-      <c r="J316" s="5">
+      <c r="J316" s="8">
         <v>46</v>
       </c>
-      <c r="K316" s="5">
+      <c r="K316" s="4">
         <v>0</v>
       </c>
-      <c r="L316" s="5">
+      <c r="L316" s="8">
         <v>29</v>
       </c>
-      <c r="M316" s="5">
-        <v>9.8610000000000007</v>
+      <c r="M316" s="6">
+        <v>9861</v>
       </c>
     </row>
     <row r="317" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A317" s="8" t="s">
+      <c r="A317" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B317" s="8"/>
+      <c r="B317" s="11"/>
       <c r="C317" s="2" t="s">
         <v>2</v>
       </c>
@@ -13605,11 +13621,11 @@
       <c r="F318" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G318" s="4">
-        <v>1.1120000000000001</v>
-      </c>
-      <c r="H318" s="4">
-        <v>1.254</v>
+      <c r="G318" s="5">
+        <v>1112</v>
+      </c>
+      <c r="H318" s="5">
+        <v>1254</v>
       </c>
       <c r="I318" s="4">
         <v>156</v>
@@ -13623,8 +13639,8 @@
       <c r="L318" s="4">
         <v>19</v>
       </c>
-      <c r="M318" s="5">
-        <v>2.6059999999999999</v>
+      <c r="M318" s="6">
+        <v>2606</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
@@ -13644,11 +13660,11 @@
       <c r="F319" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G319" s="4">
-        <v>1.0309999999999999</v>
-      </c>
-      <c r="H319" s="4">
-        <v>1.1419999999999999</v>
+      <c r="G319" s="5">
+        <v>1031</v>
+      </c>
+      <c r="H319" s="5">
+        <v>1142</v>
       </c>
       <c r="I319" s="4">
         <v>191</v>
@@ -13662,8 +13678,8 @@
       <c r="L319" s="4">
         <v>2</v>
       </c>
-      <c r="M319" s="5">
-        <v>2.4809999999999999</v>
+      <c r="M319" s="6">
+        <v>2481</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
@@ -13703,8 +13719,8 @@
       <c r="L320" s="4">
         <v>4</v>
       </c>
-      <c r="M320" s="5">
-        <v>1.786</v>
+      <c r="M320" s="6">
+        <v>1786</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
@@ -13742,8 +13758,8 @@
       <c r="L321" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M321" s="5">
-        <v>1.5229999999999999</v>
+      <c r="M321" s="6">
+        <v>1523</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
@@ -13783,8 +13799,8 @@
       <c r="L322" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M322" s="5">
-        <v>1.24</v>
+      <c r="M322" s="6">
+        <v>1240</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
@@ -13822,8 +13838,8 @@
       <c r="L323" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M323" s="5">
-        <v>1.123</v>
+      <c r="M323" s="6">
+        <v>1123</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
@@ -13863,7 +13879,7 @@
       <c r="L324" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M324" s="5">
+      <c r="M324" s="8">
         <v>910</v>
       </c>
     </row>
@@ -13902,7 +13918,7 @@
       <c r="L325" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M325" s="5">
+      <c r="M325" s="8">
         <v>886</v>
       </c>
     </row>
@@ -13943,8 +13959,8 @@
       <c r="L326" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M326" s="5">
-        <v>1.0469999999999999</v>
+      <c r="M326" s="6">
+        <v>1047</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
@@ -13982,8 +13998,8 @@
       <c r="L327" s="4">
         <v>2</v>
       </c>
-      <c r="M327" s="5">
-        <v>1.1579999999999999</v>
+      <c r="M327" s="6">
+        <v>1158</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
@@ -14023,7 +14039,7 @@
       <c r="L328" s="4">
         <v>2</v>
       </c>
-      <c r="M328" s="5">
+      <c r="M328" s="8">
         <v>765</v>
       </c>
     </row>
@@ -14062,7 +14078,7 @@
       <c r="L329" s="4">
         <v>3</v>
       </c>
-      <c r="M329" s="5">
+      <c r="M329" s="8">
         <v>808</v>
       </c>
     </row>
@@ -14103,7 +14119,7 @@
       <c r="L330" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M330" s="5">
+      <c r="M330" s="8">
         <v>599</v>
       </c>
     </row>
@@ -14142,7 +14158,7 @@
       <c r="L331" s="4">
         <v>1</v>
       </c>
-      <c r="M331" s="5">
+      <c r="M331" s="8">
         <v>663</v>
       </c>
     </row>
@@ -14183,7 +14199,7 @@
       <c r="L332" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M332" s="5">
+      <c r="M332" s="8">
         <v>657</v>
       </c>
     </row>
@@ -14222,7 +14238,7 @@
       <c r="L333" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M333" s="5">
+      <c r="M333" s="8">
         <v>631</v>
       </c>
     </row>
@@ -14263,7 +14279,7 @@
       <c r="L334" s="4">
         <v>1</v>
       </c>
-      <c r="M334" s="5">
+      <c r="M334" s="8">
         <v>554</v>
       </c>
     </row>
@@ -14302,7 +14318,7 @@
       <c r="L335" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M335" s="5">
+      <c r="M335" s="8">
         <v>515</v>
       </c>
     </row>
@@ -14343,7 +14359,7 @@
       <c r="L336" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M336" s="5">
+      <c r="M336" s="8">
         <v>502</v>
       </c>
     </row>
@@ -14382,7 +14398,7 @@
       <c r="L337" s="4">
         <v>2</v>
       </c>
-      <c r="M337" s="5">
+      <c r="M337" s="8">
         <v>467</v>
       </c>
     </row>
@@ -14423,7 +14439,7 @@
       <c r="L338" s="4">
         <v>1</v>
       </c>
-      <c r="M338" s="5">
+      <c r="M338" s="8">
         <v>373</v>
       </c>
     </row>
@@ -14462,7 +14478,7 @@
       <c r="L339" s="4">
         <v>5</v>
       </c>
-      <c r="M339" s="5">
+      <c r="M339" s="8">
         <v>482</v>
       </c>
     </row>
@@ -14503,7 +14519,7 @@
       <c r="L340" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M340" s="5">
+      <c r="M340" s="8">
         <v>492</v>
       </c>
     </row>
@@ -14542,7 +14558,7 @@
       <c r="L341" s="4">
         <v>7</v>
       </c>
-      <c r="M341" s="5">
+      <c r="M341" s="8">
         <v>753</v>
       </c>
     </row>
@@ -14550,46 +14566,46 @@
       <c r="A342" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B342" s="6"/>
-      <c r="C342" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="D342" s="5">
-        <v>2.8759999999999999</v>
-      </c>
-      <c r="E342" s="5">
-        <v>3.3740000000000001</v>
-      </c>
-      <c r="F342" s="5">
-        <v>1.2250000000000001</v>
-      </c>
-      <c r="G342" s="5">
-        <v>4.9740000000000002</v>
-      </c>
-      <c r="H342" s="5">
-        <v>5.6040000000000001</v>
-      </c>
-      <c r="I342" s="5">
-        <v>2.2370000000000001</v>
-      </c>
-      <c r="J342" s="5">
+      <c r="B342" s="7"/>
+      <c r="C342" s="6">
+        <v>2500</v>
+      </c>
+      <c r="D342" s="6">
+        <v>2876</v>
+      </c>
+      <c r="E342" s="6">
+        <v>3374</v>
+      </c>
+      <c r="F342" s="6">
+        <v>1225</v>
+      </c>
+      <c r="G342" s="6">
+        <v>4974</v>
+      </c>
+      <c r="H342" s="6">
+        <v>5604</v>
+      </c>
+      <c r="I342" s="6">
+        <v>2237</v>
+      </c>
+      <c r="J342" s="8">
         <v>174</v>
       </c>
-      <c r="K342" s="5">
+      <c r="K342" s="8">
         <v>8</v>
       </c>
-      <c r="L342" s="5">
+      <c r="L342" s="8">
         <v>49</v>
       </c>
-      <c r="M342" s="5">
-        <v>23.021000000000001</v>
+      <c r="M342" s="6">
+        <v>23021</v>
       </c>
     </row>
     <row r="343" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A343" s="8" t="s">
+      <c r="A343" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B343" s="8"/>
+      <c r="B343" s="11"/>
       <c r="C343" s="2" t="s">
         <v>2</v>
       </c>
@@ -14661,8 +14677,8 @@
       <c r="L344" s="4">
         <v>15</v>
       </c>
-      <c r="M344" s="5">
-        <v>1.9379999999999999</v>
+      <c r="M344" s="6">
+        <v>1938</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
@@ -14700,8 +14716,8 @@
       <c r="L345" s="4">
         <v>2</v>
       </c>
-      <c r="M345" s="5">
-        <v>1.5880000000000001</v>
+      <c r="M345" s="6">
+        <v>1588</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
@@ -14741,8 +14757,8 @@
       <c r="L346" s="4">
         <v>5</v>
       </c>
-      <c r="M346" s="5">
-        <v>1.7070000000000001</v>
+      <c r="M346" s="6">
+        <v>1707</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
@@ -14780,7 +14796,7 @@
       <c r="L347" s="4">
         <v>2</v>
       </c>
-      <c r="M347" s="5">
+      <c r="M347" s="8">
         <v>947</v>
       </c>
     </row>
@@ -14821,8 +14837,8 @@
       <c r="L348" s="4">
         <v>4</v>
       </c>
-      <c r="M348" s="5">
-        <v>1.1859999999999999</v>
+      <c r="M348" s="6">
+        <v>1186</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.25">
@@ -14860,7 +14876,7 @@
       <c r="L349" s="4">
         <v>1</v>
       </c>
-      <c r="M349" s="5">
+      <c r="M349" s="8">
         <v>833</v>
       </c>
     </row>
@@ -14901,7 +14917,7 @@
       <c r="L350" s="4">
         <v>1</v>
       </c>
-      <c r="M350" s="5">
+      <c r="M350" s="8">
         <v>750</v>
       </c>
     </row>
@@ -14940,7 +14956,7 @@
       <c r="L351" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M351" s="5">
+      <c r="M351" s="8">
         <v>638</v>
       </c>
     </row>
@@ -14981,7 +14997,7 @@
       <c r="L352" s="4">
         <v>3</v>
       </c>
-      <c r="M352" s="5">
+      <c r="M352" s="8">
         <v>830</v>
       </c>
     </row>
@@ -15020,7 +15036,7 @@
       <c r="L353" s="4">
         <v>3</v>
       </c>
-      <c r="M353" s="5">
+      <c r="M353" s="8">
         <v>731</v>
       </c>
     </row>
@@ -15061,7 +15077,7 @@
       <c r="L354" s="4">
         <v>5</v>
       </c>
-      <c r="M354" s="5">
+      <c r="M354" s="8">
         <v>615</v>
       </c>
     </row>
@@ -15100,7 +15116,7 @@
       <c r="L355" s="4">
         <v>3</v>
       </c>
-      <c r="M355" s="5">
+      <c r="M355" s="8">
         <v>625</v>
       </c>
     </row>
@@ -15141,7 +15157,7 @@
       <c r="L356" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M356" s="5">
+      <c r="M356" s="8">
         <v>567</v>
       </c>
     </row>
@@ -15180,7 +15196,7 @@
       <c r="L357" s="4">
         <v>1</v>
       </c>
-      <c r="M357" s="5">
+      <c r="M357" s="8">
         <v>532</v>
       </c>
     </row>
@@ -15221,7 +15237,7 @@
       <c r="L358" s="4">
         <v>2</v>
       </c>
-      <c r="M358" s="5">
+      <c r="M358" s="8">
         <v>559</v>
       </c>
     </row>
@@ -15260,7 +15276,7 @@
       <c r="L359" s="4">
         <v>2</v>
       </c>
-      <c r="M359" s="5">
+      <c r="M359" s="8">
         <v>521</v>
       </c>
     </row>
@@ -15301,7 +15317,7 @@
       <c r="L360" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M360" s="5">
+      <c r="M360" s="8">
         <v>452</v>
       </c>
     </row>
@@ -15340,7 +15356,7 @@
       <c r="L361" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M361" s="5">
+      <c r="M361" s="8">
         <v>470</v>
       </c>
     </row>
@@ -15381,7 +15397,7 @@
       <c r="L362" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M362" s="5">
+      <c r="M362" s="8">
         <v>372</v>
       </c>
     </row>
@@ -15420,7 +15436,7 @@
       <c r="L363" s="4">
         <v>2</v>
       </c>
-      <c r="M363" s="5">
+      <c r="M363" s="8">
         <v>329</v>
       </c>
     </row>
@@ -15461,7 +15477,7 @@
       <c r="L364" s="4">
         <v>2</v>
       </c>
-      <c r="M364" s="5">
+      <c r="M364" s="8">
         <v>317</v>
       </c>
     </row>
@@ -15500,7 +15516,7 @@
       <c r="L365" s="4">
         <v>2</v>
       </c>
-      <c r="M365" s="5">
+      <c r="M365" s="8">
         <v>315</v>
       </c>
     </row>
@@ -15541,7 +15557,7 @@
       <c r="L366" s="4">
         <v>3</v>
       </c>
-      <c r="M366" s="5">
+      <c r="M366" s="8">
         <v>383</v>
       </c>
     </row>
@@ -15580,7 +15596,7 @@
       <c r="L367" s="4">
         <v>5</v>
       </c>
-      <c r="M367" s="5">
+      <c r="M367" s="8">
         <v>631</v>
       </c>
     </row>
@@ -15588,46 +15604,46 @@
       <c r="A368" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B368" s="6"/>
-      <c r="C368" s="5">
-        <v>1.8149999999999999</v>
-      </c>
-      <c r="D368" s="5">
-        <v>2.355</v>
-      </c>
-      <c r="E368" s="5">
-        <v>2.6619999999999999</v>
-      </c>
-      <c r="F368" s="5">
-        <v>1.161</v>
-      </c>
-      <c r="G368" s="5">
-        <v>3.3769999999999998</v>
-      </c>
-      <c r="H368" s="5">
-        <v>4.4829999999999997</v>
-      </c>
-      <c r="I368" s="5">
-        <v>1.8009999999999999</v>
-      </c>
-      <c r="J368" s="5">
+      <c r="B368" s="7"/>
+      <c r="C368" s="6">
+        <v>1815</v>
+      </c>
+      <c r="D368" s="6">
+        <v>2355</v>
+      </c>
+      <c r="E368" s="6">
+        <v>2662</v>
+      </c>
+      <c r="F368" s="6">
+        <v>1161</v>
+      </c>
+      <c r="G368" s="6">
+        <v>3377</v>
+      </c>
+      <c r="H368" s="6">
+        <v>4483</v>
+      </c>
+      <c r="I368" s="6">
+        <v>1801</v>
+      </c>
+      <c r="J368" s="8">
         <v>116</v>
       </c>
-      <c r="K368" s="5">
+      <c r="K368" s="8">
         <v>3</v>
       </c>
-      <c r="L368" s="5">
+      <c r="L368" s="8">
         <v>63</v>
       </c>
-      <c r="M368" s="5">
-        <v>17.835999999999999</v>
+      <c r="M368" s="6">
+        <v>17836</v>
       </c>
     </row>
     <row r="369" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A369" s="8" t="s">
+      <c r="A369" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B369" s="8"/>
+      <c r="B369" s="11"/>
       <c r="C369" s="2" t="s">
         <v>2</v>
       </c>
@@ -15681,11 +15697,11 @@
       <c r="F370" s="4">
         <v>1</v>
       </c>
-      <c r="G370" s="4">
-        <v>2.58</v>
-      </c>
-      <c r="H370" s="4">
-        <v>3.0819999999999999</v>
+      <c r="G370" s="5">
+        <v>2580</v>
+      </c>
+      <c r="H370" s="5">
+        <v>3082</v>
       </c>
       <c r="I370" s="4">
         <v>369</v>
@@ -15699,8 +15715,8 @@
       <c r="L370" s="4">
         <v>55</v>
       </c>
-      <c r="M370" s="5">
-        <v>6.2140000000000004</v>
+      <c r="M370" s="6">
+        <v>6214</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
@@ -15720,11 +15736,11 @@
       <c r="F371" s="4">
         <v>4</v>
       </c>
-      <c r="G371" s="4">
-        <v>2.6030000000000002</v>
-      </c>
-      <c r="H371" s="4">
-        <v>3.0960000000000001</v>
+      <c r="G371" s="5">
+        <v>2603</v>
+      </c>
+      <c r="H371" s="5">
+        <v>3096</v>
       </c>
       <c r="I371" s="4">
         <v>489</v>
@@ -15738,8 +15754,8 @@
       <c r="L371" s="4">
         <v>9</v>
       </c>
-      <c r="M371" s="5">
-        <v>6.3789999999999996</v>
+      <c r="M371" s="6">
+        <v>6379</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.25">
@@ -15761,14 +15777,14 @@
       <c r="F372" s="4">
         <v>69</v>
       </c>
-      <c r="G372" s="4">
-        <v>1.143</v>
-      </c>
-      <c r="H372" s="4">
-        <v>1.661</v>
-      </c>
-      <c r="I372" s="4">
-        <v>1.0940000000000001</v>
+      <c r="G372" s="5">
+        <v>1143</v>
+      </c>
+      <c r="H372" s="5">
+        <v>1661</v>
+      </c>
+      <c r="I372" s="5">
+        <v>1094</v>
       </c>
       <c r="J372" s="4">
         <v>67</v>
@@ -15779,8 +15795,8 @@
       <c r="L372" s="4">
         <v>10</v>
       </c>
-      <c r="M372" s="5">
-        <v>4.2649999999999997</v>
+      <c r="M372" s="6">
+        <v>4265</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.25">
@@ -15800,14 +15816,14 @@
       <c r="F373" s="4">
         <v>120</v>
       </c>
-      <c r="G373" s="4">
-        <v>1.0649999999999999</v>
+      <c r="G373" s="5">
+        <v>1065</v>
       </c>
       <c r="H373" s="4">
         <v>899</v>
       </c>
-      <c r="I373" s="4">
-        <v>1.085</v>
+      <c r="I373" s="5">
+        <v>1085</v>
       </c>
       <c r="J373" s="4">
         <v>44</v>
@@ -15818,8 +15834,8 @@
       <c r="L373" s="4">
         <v>5</v>
       </c>
-      <c r="M373" s="5">
-        <v>3.8519999999999999</v>
+      <c r="M373" s="6">
+        <v>3852</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.25">
@@ -15844,11 +15860,11 @@
       <c r="G374" s="4">
         <v>517</v>
       </c>
-      <c r="H374" s="4">
-        <v>1.137</v>
-      </c>
-      <c r="I374" s="4">
-        <v>1.0049999999999999</v>
+      <c r="H374" s="5">
+        <v>1137</v>
+      </c>
+      <c r="I374" s="5">
+        <v>1005</v>
       </c>
       <c r="J374" s="4">
         <v>141</v>
@@ -15859,8 +15875,8 @@
       <c r="L374" s="4">
         <v>8</v>
       </c>
-      <c r="M374" s="5">
-        <v>3.6059999999999999</v>
+      <c r="M374" s="6">
+        <v>3606</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.25">
@@ -15898,8 +15914,8 @@
       <c r="L375" s="4">
         <v>10</v>
       </c>
-      <c r="M375" s="5">
-        <v>3.1549999999999998</v>
+      <c r="M375" s="6">
+        <v>3155</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.25">
@@ -15939,8 +15955,8 @@
       <c r="L376" s="4">
         <v>2</v>
       </c>
-      <c r="M376" s="5">
-        <v>2.556</v>
+      <c r="M376" s="6">
+        <v>2556</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
@@ -15978,8 +15994,8 @@
       <c r="L377" s="4">
         <v>7</v>
       </c>
-      <c r="M377" s="5">
-        <v>2.3540000000000001</v>
+      <c r="M377" s="6">
+        <v>2354</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.25">
@@ -16019,8 +16035,8 @@
       <c r="L378" s="4">
         <v>4</v>
       </c>
-      <c r="M378" s="5">
-        <v>2.5219999999999998</v>
+      <c r="M378" s="6">
+        <v>2522</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
@@ -16058,8 +16074,8 @@
       <c r="L379" s="4">
         <v>10</v>
       </c>
-      <c r="M379" s="5">
-        <v>2.6110000000000002</v>
+      <c r="M379" s="6">
+        <v>2611</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.25">
@@ -16099,8 +16115,8 @@
       <c r="L380" s="4">
         <v>11</v>
       </c>
-      <c r="M380" s="5">
-        <v>2.0139999999999998</v>
+      <c r="M380" s="6">
+        <v>2014</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.25">
@@ -16138,8 +16154,8 @@
       <c r="L381" s="4">
         <v>10</v>
       </c>
-      <c r="M381" s="5">
-        <v>1.9450000000000001</v>
+      <c r="M381" s="6">
+        <v>1945</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.25">
@@ -16179,8 +16195,8 @@
       <c r="L382" s="4">
         <v>3</v>
       </c>
-      <c r="M382" s="5">
-        <v>1.6659999999999999</v>
+      <c r="M382" s="6">
+        <v>1666</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
@@ -16218,8 +16234,8 @@
       <c r="L383" s="4">
         <v>6</v>
       </c>
-      <c r="M383" s="5">
-        <v>1.619</v>
+      <c r="M383" s="6">
+        <v>1619</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.25">
@@ -16259,8 +16275,8 @@
       <c r="L384" s="4">
         <v>2</v>
       </c>
-      <c r="M384" s="5">
-        <v>1.508</v>
+      <c r="M384" s="6">
+        <v>1508</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.25">
@@ -16298,8 +16314,8 @@
       <c r="L385" s="4">
         <v>6</v>
       </c>
-      <c r="M385" s="5">
-        <v>1.3859999999999999</v>
+      <c r="M385" s="6">
+        <v>1386</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.25">
@@ -16339,7 +16355,7 @@
       <c r="L386" s="4">
         <v>2</v>
       </c>
-      <c r="M386" s="5">
+      <c r="M386" s="8">
         <v>999</v>
       </c>
     </row>
@@ -16378,8 +16394,8 @@
       <c r="L387" s="4">
         <v>1</v>
       </c>
-      <c r="M387" s="5">
-        <v>1.034</v>
+      <c r="M387" s="6">
+        <v>1034</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.25">
@@ -16419,7 +16435,7 @@
       <c r="L388" s="4">
         <v>2</v>
       </c>
-      <c r="M388" s="5">
+      <c r="M388" s="8">
         <v>784</v>
       </c>
     </row>
@@ -16458,7 +16474,7 @@
       <c r="L389" s="4">
         <v>1</v>
       </c>
-      <c r="M389" s="5">
+      <c r="M389" s="8">
         <v>781</v>
       </c>
     </row>
@@ -16499,7 +16515,7 @@
       <c r="L390" s="4">
         <v>2</v>
       </c>
-      <c r="M390" s="5">
+      <c r="M390" s="8">
         <v>557</v>
       </c>
     </row>
@@ -16538,7 +16554,7 @@
       <c r="L391" s="4">
         <v>4</v>
       </c>
-      <c r="M391" s="5">
+      <c r="M391" s="8">
         <v>732</v>
       </c>
     </row>
@@ -16579,7 +16595,7 @@
       <c r="L392" s="4">
         <v>5</v>
       </c>
-      <c r="M392" s="5">
+      <c r="M392" s="8">
         <v>642</v>
       </c>
     </row>
@@ -16618,54 +16634,54 @@
       <c r="L393" s="4">
         <v>10</v>
       </c>
-      <c r="M393" s="5">
-        <v>1.137</v>
+      <c r="M393" s="6">
+        <v>1137</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B394" s="6"/>
-      <c r="C394" s="5">
-        <v>2.601</v>
-      </c>
-      <c r="D394" s="5">
-        <v>7.9939999999999998</v>
-      </c>
-      <c r="E394" s="5">
-        <v>7.0869999999999997</v>
-      </c>
-      <c r="F394" s="5">
-        <v>3.6150000000000002</v>
-      </c>
-      <c r="G394" s="5">
-        <v>11.492000000000001</v>
-      </c>
-      <c r="H394" s="5">
-        <v>14.763999999999999</v>
-      </c>
-      <c r="I394" s="5">
-        <v>6.0369999999999999</v>
-      </c>
-      <c r="J394" s="5">
+      <c r="B394" s="7"/>
+      <c r="C394" s="6">
+        <v>2601</v>
+      </c>
+      <c r="D394" s="6">
+        <v>7994</v>
+      </c>
+      <c r="E394" s="6">
+        <v>7087</v>
+      </c>
+      <c r="F394" s="6">
+        <v>3615</v>
+      </c>
+      <c r="G394" s="6">
+        <v>11492</v>
+      </c>
+      <c r="H394" s="6">
+        <v>14764</v>
+      </c>
+      <c r="I394" s="6">
+        <v>6037</v>
+      </c>
+      <c r="J394" s="8">
         <v>519</v>
       </c>
-      <c r="K394" s="5">
+      <c r="K394" s="8">
         <v>24</v>
       </c>
-      <c r="L394" s="5">
+      <c r="L394" s="8">
         <v>185</v>
       </c>
-      <c r="M394" s="5">
-        <v>54.317999999999998</v>
+      <c r="M394" s="6">
+        <v>54318</v>
       </c>
     </row>
     <row r="395" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A395" s="8" t="s">
+      <c r="A395" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B395" s="8"/>
+      <c r="B395" s="11"/>
       <c r="C395" s="2" t="s">
         <v>2</v>
       </c>
@@ -16719,11 +16735,11 @@
       <c r="F396" s="4">
         <v>8</v>
       </c>
-      <c r="G396" s="4">
-        <v>3.145</v>
-      </c>
-      <c r="H396" s="4">
-        <v>3.1709999999999998</v>
+      <c r="G396" s="5">
+        <v>3145</v>
+      </c>
+      <c r="H396" s="5">
+        <v>3171</v>
       </c>
       <c r="I396" s="4">
         <v>338</v>
@@ -16737,8 +16753,8 @@
       <c r="L396" s="4">
         <v>66</v>
       </c>
-      <c r="M396" s="5">
-        <v>6.8860000000000001</v>
+      <c r="M396" s="6">
+        <v>6886</v>
       </c>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.25">
@@ -16758,11 +16774,11 @@
       <c r="F397" s="4">
         <v>7</v>
       </c>
-      <c r="G397" s="4">
-        <v>2.782</v>
-      </c>
-      <c r="H397" s="4">
-        <v>2.835</v>
+      <c r="G397" s="5">
+        <v>2782</v>
+      </c>
+      <c r="H397" s="5">
+        <v>2835</v>
       </c>
       <c r="I397" s="4">
         <v>456</v>
@@ -16776,8 +16792,8 @@
       <c r="L397" s="4">
         <v>9</v>
       </c>
-      <c r="M397" s="5">
-        <v>6.3879999999999999</v>
+      <c r="M397" s="6">
+        <v>6388</v>
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.25">
@@ -16799,11 +16815,11 @@
       <c r="F398" s="4">
         <v>112</v>
       </c>
-      <c r="G398" s="4">
-        <v>1.653</v>
-      </c>
-      <c r="H398" s="4">
-        <v>1.34</v>
+      <c r="G398" s="5">
+        <v>1653</v>
+      </c>
+      <c r="H398" s="5">
+        <v>1340</v>
       </c>
       <c r="I398" s="4">
         <v>739</v>
@@ -16817,8 +16833,8 @@
       <c r="L398" s="4">
         <v>8</v>
       </c>
-      <c r="M398" s="5">
-        <v>4.1680000000000001</v>
+      <c r="M398" s="6">
+        <v>4168</v>
       </c>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.25">
@@ -16838,8 +16854,8 @@
       <c r="F399" s="4">
         <v>158</v>
       </c>
-      <c r="G399" s="4">
-        <v>1.079</v>
+      <c r="G399" s="5">
+        <v>1079</v>
       </c>
       <c r="H399" s="4">
         <v>651</v>
@@ -16856,8 +16872,8 @@
       <c r="L399" s="4">
         <v>7</v>
       </c>
-      <c r="M399" s="5">
-        <v>3.484</v>
+      <c r="M399" s="6">
+        <v>3484</v>
       </c>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.25">
@@ -16897,8 +16913,8 @@
       <c r="L400" s="4">
         <v>9</v>
       </c>
-      <c r="M400" s="5">
-        <v>3.4569999999999999</v>
+      <c r="M400" s="6">
+        <v>3457</v>
       </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.25">
@@ -16936,8 +16952,8 @@
       <c r="L401" s="4">
         <v>11</v>
       </c>
-      <c r="M401" s="5">
-        <v>3.0950000000000002</v>
+      <c r="M401" s="6">
+        <v>3095</v>
       </c>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.25">
@@ -16977,8 +16993,8 @@
       <c r="L402" s="4">
         <v>4</v>
       </c>
-      <c r="M402" s="5">
-        <v>2.9540000000000002</v>
+      <c r="M402" s="6">
+        <v>2954</v>
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.25">
@@ -17016,8 +17032,8 @@
       <c r="L403" s="4">
         <v>13</v>
       </c>
-      <c r="M403" s="5">
-        <v>2.7320000000000002</v>
+      <c r="M403" s="6">
+        <v>2732</v>
       </c>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.25">
@@ -17057,8 +17073,8 @@
       <c r="L404" s="4">
         <v>10</v>
       </c>
-      <c r="M404" s="5">
-        <v>2.944</v>
+      <c r="M404" s="6">
+        <v>2944</v>
       </c>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.25">
@@ -17096,8 +17112,8 @@
       <c r="L405" s="4">
         <v>13</v>
       </c>
-      <c r="M405" s="5">
-        <v>2.976</v>
+      <c r="M405" s="6">
+        <v>2976</v>
       </c>
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.25">
@@ -17137,8 +17153,8 @@
       <c r="L406" s="4">
         <v>17</v>
       </c>
-      <c r="M406" s="5">
-        <v>2.4620000000000002</v>
+      <c r="M406" s="6">
+        <v>2462</v>
       </c>
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.25">
@@ -17176,8 +17192,8 @@
       <c r="L407" s="4">
         <v>8</v>
       </c>
-      <c r="M407" s="5">
-        <v>2.4180000000000001</v>
+      <c r="M407" s="6">
+        <v>2418</v>
       </c>
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.25">
@@ -17217,8 +17233,8 @@
       <c r="L408" s="4">
         <v>13</v>
       </c>
-      <c r="M408" s="5">
-        <v>2.1840000000000002</v>
+      <c r="M408" s="6">
+        <v>2184</v>
       </c>
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.25">
@@ -17256,8 +17272,8 @@
       <c r="L409" s="4">
         <v>14</v>
       </c>
-      <c r="M409" s="5">
-        <v>2.1070000000000002</v>
+      <c r="M409" s="6">
+        <v>2107</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.25">
@@ -17297,8 +17313,8 @@
       <c r="L410" s="4">
         <v>7</v>
       </c>
-      <c r="M410" s="5">
-        <v>1.825</v>
+      <c r="M410" s="6">
+        <v>1825</v>
       </c>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.25">
@@ -17336,8 +17352,8 @@
       <c r="L411" s="4">
         <v>13</v>
       </c>
-      <c r="M411" s="5">
-        <v>1.8129999999999999</v>
+      <c r="M411" s="6">
+        <v>1813</v>
       </c>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.25">
@@ -17377,8 +17393,8 @@
       <c r="L412" s="4">
         <v>6</v>
       </c>
-      <c r="M412" s="5">
-        <v>1.2529999999999999</v>
+      <c r="M412" s="6">
+        <v>1253</v>
       </c>
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.25">
@@ -17416,8 +17432,8 @@
       <c r="L413" s="4">
         <v>7</v>
       </c>
-      <c r="M413" s="5">
-        <v>1.266</v>
+      <c r="M413" s="6">
+        <v>1266</v>
       </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.25">
@@ -17457,7 +17473,7 @@
       <c r="L414" s="4">
         <v>6</v>
       </c>
-      <c r="M414" s="5">
+      <c r="M414" s="8">
         <v>936</v>
       </c>
     </row>
@@ -17496,7 +17512,7 @@
       <c r="L415" s="4">
         <v>8</v>
       </c>
-      <c r="M415" s="5">
+      <c r="M415" s="8">
         <v>978</v>
       </c>
     </row>
@@ -17537,7 +17553,7 @@
       <c r="L416" s="4">
         <v>4</v>
       </c>
-      <c r="M416" s="5">
+      <c r="M416" s="8">
         <v>627</v>
       </c>
     </row>
@@ -17576,7 +17592,7 @@
       <c r="L417" s="4">
         <v>6</v>
       </c>
-      <c r="M417" s="5">
+      <c r="M417" s="8">
         <v>814</v>
       </c>
     </row>
@@ -17617,7 +17633,7 @@
       <c r="L418" s="4">
         <v>7</v>
       </c>
-      <c r="M418" s="5">
+      <c r="M418" s="8">
         <v>707</v>
       </c>
     </row>
@@ -17626,8 +17642,8 @@
       <c r="B419" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C419" s="4">
-        <v>1.0169999999999999</v>
+      <c r="C419" s="5">
+        <v>1017</v>
       </c>
       <c r="D419" s="4">
         <v>251</v>
@@ -17656,54 +17672,54 @@
       <c r="L419" s="4">
         <v>20</v>
       </c>
-      <c r="M419" s="5">
-        <v>1.3859999999999999</v>
+      <c r="M419" s="6">
+        <v>1386</v>
       </c>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B420" s="6"/>
-      <c r="C420" s="5">
-        <v>5.31</v>
-      </c>
-      <c r="D420" s="5">
-        <v>6.3029999999999999</v>
-      </c>
-      <c r="E420" s="5">
-        <v>7.9640000000000004</v>
-      </c>
-      <c r="F420" s="5">
-        <v>5.6509999999999998</v>
-      </c>
-      <c r="G420" s="5">
-        <v>13.05</v>
-      </c>
-      <c r="H420" s="5">
-        <v>14.888999999999999</v>
-      </c>
-      <c r="I420" s="5">
-        <v>5.093</v>
-      </c>
-      <c r="J420" s="5">
+      <c r="B420" s="7"/>
+      <c r="C420" s="6">
+        <v>5310</v>
+      </c>
+      <c r="D420" s="6">
+        <v>6303</v>
+      </c>
+      <c r="E420" s="6">
+        <v>7964</v>
+      </c>
+      <c r="F420" s="6">
+        <v>5651</v>
+      </c>
+      <c r="G420" s="6">
+        <v>13050</v>
+      </c>
+      <c r="H420" s="6">
+        <v>14889</v>
+      </c>
+      <c r="I420" s="6">
+        <v>5093</v>
+      </c>
+      <c r="J420" s="8">
         <v>745</v>
       </c>
-      <c r="K420" s="5">
+      <c r="K420" s="8">
         <v>569</v>
       </c>
-      <c r="L420" s="5">
+      <c r="L420" s="8">
         <v>286</v>
       </c>
-      <c r="M420" s="5">
-        <v>59.86</v>
+      <c r="M420" s="6">
+        <v>59860</v>
       </c>
     </row>
     <row r="421" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A421" s="8" t="s">
+      <c r="A421" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B421" s="8"/>
+      <c r="B421" s="11"/>
       <c r="C421" s="2" t="s">
         <v>2</v>
       </c>
@@ -17757,11 +17773,11 @@
       <c r="F422" s="4">
         <v>19</v>
       </c>
-      <c r="G422" s="4">
-        <v>4.8730000000000002</v>
-      </c>
-      <c r="H422" s="4">
-        <v>6.73</v>
+      <c r="G422" s="5">
+        <v>4873</v>
+      </c>
+      <c r="H422" s="5">
+        <v>6730</v>
       </c>
       <c r="I422" s="4">
         <v>932</v>
@@ -17775,8 +17791,8 @@
       <c r="L422" s="4">
         <v>99</v>
       </c>
-      <c r="M422" s="5">
-        <v>12.96</v>
+      <c r="M422" s="6">
+        <v>12960</v>
       </c>
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.25">
@@ -17796,14 +17812,14 @@
       <c r="F423" s="4">
         <v>8</v>
       </c>
-      <c r="G423" s="4">
-        <v>4.2240000000000002</v>
-      </c>
-      <c r="H423" s="4">
-        <v>7.0609999999999999</v>
-      </c>
-      <c r="I423" s="4">
-        <v>1.373</v>
+      <c r="G423" s="5">
+        <v>4224</v>
+      </c>
+      <c r="H423" s="5">
+        <v>7061</v>
+      </c>
+      <c r="I423" s="5">
+        <v>1373</v>
       </c>
       <c r="J423" s="4">
         <v>8</v>
@@ -17814,8 +17830,8 @@
       <c r="L423" s="4">
         <v>10</v>
       </c>
-      <c r="M423" s="5">
-        <v>13.215999999999999</v>
+      <c r="M423" s="6">
+        <v>13216</v>
       </c>
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.25">
@@ -17837,14 +17853,14 @@
       <c r="F424" s="4">
         <v>218</v>
       </c>
-      <c r="G424" s="4">
-        <v>2.8359999999999999</v>
-      </c>
-      <c r="H424" s="4">
-        <v>3.2749999999999999</v>
-      </c>
-      <c r="I424" s="4">
-        <v>2.8570000000000002</v>
+      <c r="G424" s="5">
+        <v>2836</v>
+      </c>
+      <c r="H424" s="5">
+        <v>3275</v>
+      </c>
+      <c r="I424" s="5">
+        <v>2857</v>
       </c>
       <c r="J424" s="4">
         <v>217</v>
@@ -17855,8 +17871,8 @@
       <c r="L424" s="4">
         <v>29</v>
       </c>
-      <c r="M424" s="5">
-        <v>9.8889999999999993</v>
+      <c r="M424" s="6">
+        <v>9889</v>
       </c>
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.25">
@@ -17876,14 +17892,14 @@
       <c r="F425" s="4">
         <v>334</v>
       </c>
-      <c r="G425" s="4">
-        <v>2.3439999999999999</v>
-      </c>
-      <c r="H425" s="4">
-        <v>2.39</v>
-      </c>
-      <c r="I425" s="4">
-        <v>3.5310000000000001</v>
+      <c r="G425" s="5">
+        <v>2344</v>
+      </c>
+      <c r="H425" s="5">
+        <v>2390</v>
+      </c>
+      <c r="I425" s="5">
+        <v>3531</v>
       </c>
       <c r="J425" s="4">
         <v>233</v>
@@ -17894,8 +17910,8 @@
       <c r="L425" s="4">
         <v>20</v>
       </c>
-      <c r="M425" s="5">
-        <v>10.297000000000001</v>
+      <c r="M425" s="6">
+        <v>10297</v>
       </c>
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.25">
@@ -17914,17 +17930,17 @@
       <c r="E426" s="4">
         <v>229</v>
       </c>
-      <c r="F426" s="4">
-        <v>1.4219999999999999</v>
-      </c>
-      <c r="G426" s="4">
-        <v>1.452</v>
-      </c>
-      <c r="H426" s="4">
-        <v>3.0059999999999998</v>
-      </c>
-      <c r="I426" s="4">
-        <v>3.831</v>
+      <c r="F426" s="5">
+        <v>1422</v>
+      </c>
+      <c r="G426" s="5">
+        <v>1452</v>
+      </c>
+      <c r="H426" s="5">
+        <v>3006</v>
+      </c>
+      <c r="I426" s="5">
+        <v>3831</v>
       </c>
       <c r="J426" s="4">
         <v>466</v>
@@ -17935,8 +17951,8 @@
       <c r="L426" s="4">
         <v>19</v>
       </c>
-      <c r="M426" s="5">
-        <v>10.679</v>
+      <c r="M426" s="6">
+        <v>10679</v>
       </c>
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.25">
@@ -17953,17 +17969,17 @@
       <c r="E427" s="4">
         <v>484</v>
       </c>
-      <c r="F427" s="4">
-        <v>1.1359999999999999</v>
-      </c>
-      <c r="G427" s="4">
-        <v>1.456</v>
-      </c>
-      <c r="H427" s="4">
-        <v>2.0049999999999999</v>
-      </c>
-      <c r="I427" s="4">
-        <v>2.9569999999999999</v>
+      <c r="F427" s="5">
+        <v>1136</v>
+      </c>
+      <c r="G427" s="5">
+        <v>1456</v>
+      </c>
+      <c r="H427" s="5">
+        <v>2005</v>
+      </c>
+      <c r="I427" s="5">
+        <v>2957</v>
       </c>
       <c r="J427" s="4">
         <v>317</v>
@@ -17974,8 +17990,8 @@
       <c r="L427" s="4">
         <v>26</v>
       </c>
-      <c r="M427" s="5">
-        <v>9.6920000000000002</v>
+      <c r="M427" s="6">
+        <v>9692</v>
       </c>
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.25">
@@ -17994,17 +18010,17 @@
       <c r="E428" s="4">
         <v>480</v>
       </c>
-      <c r="F428" s="4">
-        <v>1.373</v>
+      <c r="F428" s="5">
+        <v>1373</v>
       </c>
       <c r="G428" s="4">
         <v>840</v>
       </c>
-      <c r="H428" s="4">
-        <v>2.4860000000000002</v>
-      </c>
-      <c r="I428" s="4">
-        <v>2.3650000000000002</v>
+      <c r="H428" s="5">
+        <v>2486</v>
+      </c>
+      <c r="I428" s="5">
+        <v>2365</v>
       </c>
       <c r="J428" s="4">
         <v>391</v>
@@ -18015,8 +18031,8 @@
       <c r="L428" s="4">
         <v>20</v>
       </c>
-      <c r="M428" s="5">
-        <v>8.27</v>
+      <c r="M428" s="6">
+        <v>8270</v>
       </c>
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.25">
@@ -18030,20 +18046,20 @@
       <c r="D429" s="4">
         <v>775</v>
       </c>
-      <c r="E429" s="4">
-        <v>1.0569999999999999</v>
+      <c r="E429" s="5">
+        <v>1057</v>
       </c>
       <c r="F429" s="4">
         <v>737</v>
       </c>
-      <c r="G429" s="4">
-        <v>1.167</v>
-      </c>
-      <c r="H429" s="4">
-        <v>1.774</v>
-      </c>
-      <c r="I429" s="4">
-        <v>1.655</v>
+      <c r="G429" s="5">
+        <v>1167</v>
+      </c>
+      <c r="H429" s="5">
+        <v>1774</v>
+      </c>
+      <c r="I429" s="5">
+        <v>1655</v>
       </c>
       <c r="J429" s="4">
         <v>208</v>
@@ -18054,8 +18070,8 @@
       <c r="L429" s="4">
         <v>13</v>
       </c>
-      <c r="M429" s="5">
-        <v>7.7809999999999997</v>
+      <c r="M429" s="6">
+        <v>7781</v>
       </c>
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.25">
@@ -18074,17 +18090,17 @@
       <c r="E430" s="4">
         <v>801</v>
       </c>
-      <c r="F430" s="4">
-        <v>1.198</v>
-      </c>
-      <c r="G430" s="4">
-        <v>1.2989999999999999</v>
-      </c>
-      <c r="H430" s="4">
-        <v>2.1110000000000002</v>
-      </c>
-      <c r="I430" s="4">
-        <v>1.613</v>
+      <c r="F430" s="5">
+        <v>1198</v>
+      </c>
+      <c r="G430" s="5">
+        <v>1299</v>
+      </c>
+      <c r="H430" s="5">
+        <v>2111</v>
+      </c>
+      <c r="I430" s="5">
+        <v>1613</v>
       </c>
       <c r="J430" s="4">
         <v>308</v>
@@ -18095,8 +18111,8 @@
       <c r="L430" s="4">
         <v>20</v>
       </c>
-      <c r="M430" s="5">
-        <v>7.5720000000000001</v>
+      <c r="M430" s="6">
+        <v>7572</v>
       </c>
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.25">
@@ -18110,20 +18126,20 @@
       <c r="D431" s="4">
         <v>787</v>
       </c>
-      <c r="E431" s="4">
-        <v>1.421</v>
+      <c r="E431" s="5">
+        <v>1421</v>
       </c>
       <c r="F431" s="4">
         <v>484</v>
       </c>
-      <c r="G431" s="4">
-        <v>1.401</v>
-      </c>
-      <c r="H431" s="4">
-        <v>1.708</v>
-      </c>
-      <c r="I431" s="4">
-        <v>1.0549999999999999</v>
+      <c r="G431" s="5">
+        <v>1401</v>
+      </c>
+      <c r="H431" s="5">
+        <v>1708</v>
+      </c>
+      <c r="I431" s="5">
+        <v>1055</v>
       </c>
       <c r="J431" s="4">
         <v>197</v>
@@ -18134,8 +18150,8 @@
       <c r="L431" s="4">
         <v>21</v>
       </c>
-      <c r="M431" s="5">
-        <v>7.5419999999999998</v>
+      <c r="M431" s="6">
+        <v>7542</v>
       </c>
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.25">
@@ -18160,11 +18176,11 @@
       <c r="G432" s="4">
         <v>960</v>
       </c>
-      <c r="H432" s="4">
-        <v>1.6839999999999999</v>
-      </c>
-      <c r="I432" s="4">
-        <v>1.2050000000000001</v>
+      <c r="H432" s="5">
+        <v>1684</v>
+      </c>
+      <c r="I432" s="5">
+        <v>1205</v>
       </c>
       <c r="J432" s="4">
         <v>175</v>
@@ -18175,8 +18191,8 @@
       <c r="L432" s="4">
         <v>24</v>
       </c>
-      <c r="M432" s="5">
-        <v>5.8159999999999998</v>
+      <c r="M432" s="6">
+        <v>5816</v>
       </c>
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.25">
@@ -18190,17 +18206,17 @@
       <c r="D433" s="4">
         <v>670</v>
       </c>
-      <c r="E433" s="4">
-        <v>1.18</v>
+      <c r="E433" s="5">
+        <v>1180</v>
       </c>
       <c r="F433" s="4">
         <v>393</v>
       </c>
-      <c r="G433" s="4">
-        <v>1.07</v>
-      </c>
-      <c r="H433" s="4">
-        <v>1.2729999999999999</v>
+      <c r="G433" s="5">
+        <v>1070</v>
+      </c>
+      <c r="H433" s="5">
+        <v>1273</v>
       </c>
       <c r="I433" s="4">
         <v>727</v>
@@ -18214,8 +18230,8 @@
       <c r="L433" s="4">
         <v>30</v>
       </c>
-      <c r="M433" s="5">
-        <v>5.8719999999999999</v>
+      <c r="M433" s="6">
+        <v>5872</v>
       </c>
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.25">
@@ -18240,8 +18256,8 @@
       <c r="G434" s="4">
         <v>861</v>
       </c>
-      <c r="H434" s="4">
-        <v>1.2470000000000001</v>
+      <c r="H434" s="5">
+        <v>1247</v>
       </c>
       <c r="I434" s="4">
         <v>756</v>
@@ -18255,8 +18271,8 @@
       <c r="L434" s="4">
         <v>20</v>
       </c>
-      <c r="M434" s="5">
-        <v>4.5609999999999999</v>
+      <c r="M434" s="6">
+        <v>4561</v>
       </c>
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.25">
@@ -18294,8 +18310,8 @@
       <c r="L435" s="4">
         <v>24</v>
       </c>
-      <c r="M435" s="5">
-        <v>4.4169999999999998</v>
+      <c r="M435" s="6">
+        <v>4417</v>
       </c>
     </row>
     <row r="436" spans="1:13" x14ac:dyDescent="0.25">
@@ -18320,8 +18336,8 @@
       <c r="G436" s="4">
         <v>703</v>
       </c>
-      <c r="H436" s="4">
-        <v>1.0389999999999999</v>
+      <c r="H436" s="5">
+        <v>1039</v>
       </c>
       <c r="I436" s="4">
         <v>551</v>
@@ -18335,8 +18351,8 @@
       <c r="L436" s="4">
         <v>10</v>
       </c>
-      <c r="M436" s="5">
-        <v>3.802</v>
+      <c r="M436" s="6">
+        <v>3802</v>
       </c>
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.25">
@@ -18374,8 +18390,8 @@
       <c r="L437" s="4">
         <v>17</v>
       </c>
-      <c r="M437" s="5">
-        <v>3.7050000000000001</v>
+      <c r="M437" s="6">
+        <v>3705</v>
       </c>
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.25">
@@ -18415,8 +18431,8 @@
       <c r="L438" s="4">
         <v>23</v>
       </c>
-      <c r="M438" s="5">
-        <v>2.5790000000000002</v>
+      <c r="M438" s="6">
+        <v>2579</v>
       </c>
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.25">
@@ -18454,8 +18470,8 @@
       <c r="L439" s="4">
         <v>15</v>
       </c>
-      <c r="M439" s="5">
-        <v>2.7450000000000001</v>
+      <c r="M439" s="6">
+        <v>2745</v>
       </c>
     </row>
     <row r="440" spans="1:13" x14ac:dyDescent="0.25">
@@ -18495,8 +18511,8 @@
       <c r="L440" s="4">
         <v>17</v>
       </c>
-      <c r="M440" s="5">
-        <v>1.7709999999999999</v>
+      <c r="M440" s="6">
+        <v>1771</v>
       </c>
     </row>
     <row r="441" spans="1:13" x14ac:dyDescent="0.25">
@@ -18534,8 +18550,8 @@
       <c r="L441" s="4">
         <v>18</v>
       </c>
-      <c r="M441" s="5">
-        <v>1.9610000000000001</v>
+      <c r="M441" s="6">
+        <v>1961</v>
       </c>
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.25">
@@ -18575,8 +18591,8 @@
       <c r="L442" s="4">
         <v>7</v>
       </c>
-      <c r="M442" s="5">
-        <v>1.198</v>
+      <c r="M442" s="6">
+        <v>1198</v>
       </c>
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.25">
@@ -18614,8 +18630,8 @@
       <c r="L443" s="4">
         <v>12</v>
       </c>
-      <c r="M443" s="5">
-        <v>1.5409999999999999</v>
+      <c r="M443" s="6">
+        <v>1541</v>
       </c>
     </row>
     <row r="444" spans="1:13" x14ac:dyDescent="0.25">
@@ -18655,8 +18671,8 @@
       <c r="L444" s="4">
         <v>17</v>
       </c>
-      <c r="M444" s="5">
-        <v>1.409</v>
+      <c r="M444" s="6">
+        <v>1409</v>
       </c>
     </row>
     <row r="445" spans="1:13" x14ac:dyDescent="0.25">
@@ -18664,8 +18680,8 @@
       <c r="B445" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C445" s="4">
-        <v>1.722</v>
+      <c r="C445" s="5">
+        <v>1722</v>
       </c>
       <c r="D445" s="4">
         <v>343</v>
@@ -18694,61 +18710,61 @@
       <c r="L445" s="4">
         <v>33</v>
       </c>
-      <c r="M445" s="5">
-        <v>2.5720000000000001</v>
+      <c r="M445" s="6">
+        <v>2572</v>
       </c>
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B446" s="6"/>
-      <c r="C446" s="5">
-        <v>7.6159999999999997</v>
-      </c>
-      <c r="D446" s="5">
-        <v>8.6940000000000008</v>
-      </c>
-      <c r="E446" s="5">
-        <v>14.288</v>
-      </c>
-      <c r="F446" s="5">
-        <v>10.787000000000001</v>
-      </c>
-      <c r="G446" s="5">
-        <v>27.95</v>
-      </c>
-      <c r="H446" s="5">
-        <v>41.716999999999999</v>
-      </c>
-      <c r="I446" s="5">
-        <v>27.038</v>
-      </c>
-      <c r="J446" s="5">
-        <v>2.9289999999999998</v>
-      </c>
-      <c r="K446" s="5">
+      <c r="B446" s="7"/>
+      <c r="C446" s="6">
+        <v>7616</v>
+      </c>
+      <c r="D446" s="6">
+        <v>8694</v>
+      </c>
+      <c r="E446" s="6">
+        <v>14288</v>
+      </c>
+      <c r="F446" s="6">
+        <v>10787</v>
+      </c>
+      <c r="G446" s="6">
+        <v>27950</v>
+      </c>
+      <c r="H446" s="6">
+        <v>41717</v>
+      </c>
+      <c r="I446" s="6">
+        <v>27038</v>
+      </c>
+      <c r="J446" s="6">
+        <v>2929</v>
+      </c>
+      <c r="K446" s="8">
         <v>284</v>
       </c>
-      <c r="L446" s="5">
+      <c r="L446" s="8">
         <v>544</v>
       </c>
-      <c r="M446" s="5">
-        <v>141.84700000000001</v>
+      <c r="M446" s="6">
+        <v>141847</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A447" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A448" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A317:B317"/>
-    <mergeCell ref="A343:B343"/>
-    <mergeCell ref="A369:B369"/>
-    <mergeCell ref="A395:B395"/>
-    <mergeCell ref="A421:B421"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A239:B239"/>
     <mergeCell ref="A265:B265"/>
     <mergeCell ref="A291:B291"/>
     <mergeCell ref="A5:B5"/>
@@ -18757,6 +18773,16 @@
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="A109:B109"/>
     <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="A317:B317"/>
+    <mergeCell ref="A343:B343"/>
+    <mergeCell ref="A369:B369"/>
+    <mergeCell ref="A395:B395"/>
+    <mergeCell ref="A421:B421"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
